--- a/dev_docs/千界万锻数值表格-V1.6-2025-10-8.xlsx
+++ b/dev_docs/千界万锻数值表格-V1.6-2025-10-8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCL\.minecraft\versions\SenDims_BanForges\dev_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11B1EA3-5DF5-4D5A-BAA9-D6081246EE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB289148-5B2C-42E7-BF61-C4880966338A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>最终攻击力=面板攻击+横扫之刃+评分等级+杀手附魔</t>
   </si>
@@ -332,6 +332,38 @@
   </si>
   <si>
     <t>基础+精炼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础(单独展示)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼（单独展示）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>~30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>~40</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>~15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>~20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>~75</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100+</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +419,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +507,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDEEE3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,7 +638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,31 +750,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -745,10 +789,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -757,6 +804,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFDEEE3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1030,32 +1082,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="G1" s="40" t="s">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="G1" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1228,11 +1280,11 @@
         <f t="shared" ref="E10:E15" si="0">D10*B10</f>
         <v>9.0200000000000014</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="41">
         <f>D10+D11+D12+D13</f>
         <v>36.520000000000003</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="40">
         <v>1.5</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1252,11 +1304,11 @@
         <f t="shared" ref="M10:M16" si="2">L10*J10</f>
         <v>9.0200000000000014</v>
       </c>
-      <c r="N10" s="37">
+      <c r="N10" s="41">
         <f>L10+L11+L12+L13+L14+L15+L16</f>
         <v>50.338000000000008</v>
       </c>
-      <c r="O10" s="44">
+      <c r="O10" s="40">
         <v>4</v>
       </c>
       <c r="Q10" s="1" t="s">
@@ -1276,7 +1328,7 @@
         <f>T10*R10</f>
         <v>9.0200000000000014</v>
       </c>
-      <c r="V10" s="41">
+      <c r="V10" s="37">
         <f>T10+T11+T12</f>
         <v>34.840000000000003</v>
       </c>
@@ -1299,8 +1351,8 @@
         <f t="shared" si="0"/>
         <v>9.0200000000000014</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="40"/>
       <c r="I11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1318,8 +1370,8 @@
         <f t="shared" si="2"/>
         <v>9.0200000000000014</v>
       </c>
-      <c r="N11" s="38"/>
-      <c r="O11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="40"/>
       <c r="Q11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1337,7 +1389,7 @@
         <f>T11*R11</f>
         <v>9.0200000000000014</v>
       </c>
-      <c r="V11" s="42"/>
+      <c r="V11" s="38"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1357,8 +1409,8 @@
         <f t="shared" si="0"/>
         <v>18.48</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="40"/>
       <c r="I12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1376,8 +1428,8 @@
         <f t="shared" si="2"/>
         <v>18.48</v>
       </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="40"/>
       <c r="Q12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1395,7 +1447,7 @@
         <f>T12*R12</f>
         <v>33.6</v>
       </c>
-      <c r="V12" s="43"/>
+      <c r="V12" s="39"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1415,8 +1467,8 @@
         <f t="shared" si="0"/>
         <v>18.48</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="44"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="40"/>
       <c r="I13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1434,8 +1486,8 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="N13" s="38"/>
-      <c r="O13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="40"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1455,11 +1507,11 @@
         <f t="shared" si="0"/>
         <v>31.5</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="41">
         <f>D10+D11+D12+D14+D15</f>
         <v>59.155000000000001</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="40">
         <v>3</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -1479,8 +1531,8 @@
         <f t="shared" si="2"/>
         <v>40.137999999999998</v>
       </c>
-      <c r="N14" s="38"/>
-      <c r="O14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="40"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1500,8 +1552,8 @@
         <f t="shared" si="0"/>
         <v>48.375</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="44"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="40"/>
       <c r="I15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1519,8 +1571,8 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="N15" s="38"/>
-      <c r="O15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="40"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D16" s="6" t="s">
@@ -1551,8 +1603,8 @@
         <f t="shared" si="2"/>
         <v>10.247999999999999</v>
       </c>
-      <c r="N16" s="39"/>
-      <c r="O16" s="44"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="40"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D17" s="6" t="s">
@@ -1688,7 +1740,7 @@
         <f t="shared" ref="M22:M26" si="3">L22*J22</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="N22" s="41">
+      <c r="N22" s="37">
         <f>L22+L23+L24</f>
         <v>0.84000000000000008</v>
       </c>
@@ -1728,7 +1780,7 @@
         <f t="shared" si="3"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="N23" s="42"/>
+      <c r="N23" s="38"/>
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1765,7 +1817,7 @@
         <f t="shared" si="3"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="N24" s="43"/>
+      <c r="N24" s="39"/>
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1802,7 +1854,7 @@
         <f t="shared" si="3"/>
         <v>0.68</v>
       </c>
-      <c r="N25" s="41">
+      <c r="N25" s="37">
         <f>L22+L23+L25+L26</f>
         <v>1.2400000000000002</v>
       </c>
@@ -1825,7 +1877,7 @@
         <f t="shared" si="3"/>
         <v>0.68</v>
       </c>
-      <c r="N26" s="43"/>
+      <c r="N26" s="39"/>
       <c r="O26" s="5"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1839,7 +1891,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="43" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="35"/>
@@ -1848,7 +1900,7 @@
       <c r="E30" s="35"/>
       <c r="F30" s="36"/>
       <c r="G30" s="4"/>
-      <c r="I30" s="45" t="s">
+      <c r="I30" s="43" t="s">
         <v>44</v>
       </c>
       <c r="J30" s="35"/>
@@ -1920,11 +1972,11 @@
         <f t="shared" ref="E32:E37" si="4">D32*B32</f>
         <v>14.145</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="41">
         <f>D32+D33+D34+D35</f>
         <v>57.269999999999996</v>
       </c>
-      <c r="G32" s="44">
+      <c r="G32" s="40">
         <v>1.5</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -1944,11 +1996,11 @@
         <f t="shared" ref="M32:M38" si="6">L32*J32</f>
         <v>14.145</v>
       </c>
-      <c r="N32" s="37">
+      <c r="N32" s="41">
         <f>L32+L33+L34+L35+L36+L37+L38</f>
         <v>89.46299999999998</v>
       </c>
-      <c r="O32" s="44">
+      <c r="O32" s="40">
         <v>4</v>
       </c>
     </row>
@@ -1970,8 +2022,8 @@
         <f t="shared" si="4"/>
         <v>14.145</v>
       </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="40"/>
       <c r="I33" s="1" t="s">
         <v>19</v>
       </c>
@@ -1989,8 +2041,8 @@
         <f t="shared" si="6"/>
         <v>14.145</v>
       </c>
-      <c r="N33" s="38"/>
-      <c r="O33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="40"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -2010,8 +2062,8 @@
         <f t="shared" si="4"/>
         <v>28.979999999999997</v>
       </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="40"/>
       <c r="I34" s="1" t="s">
         <v>20</v>
       </c>
@@ -2029,8 +2081,8 @@
         <f t="shared" si="6"/>
         <v>28.979999999999997</v>
       </c>
-      <c r="N34" s="38"/>
-      <c r="O34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="40"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -2050,8 +2102,8 @@
         <f t="shared" si="4"/>
         <v>28.979999999999997</v>
       </c>
-      <c r="F35" s="39"/>
-      <c r="G35" s="44"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="40"/>
       <c r="I35" s="1" t="s">
         <v>23</v>
       </c>
@@ -2069,8 +2121,8 @@
         <f t="shared" si="6"/>
         <v>123.49999999999997</v>
       </c>
-      <c r="N35" s="38"/>
-      <c r="O35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="40"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -2090,11 +2142,11 @@
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="F36" s="37">
+      <c r="F36" s="41">
         <f>D32+D33+D34+D36+D37</f>
         <v>85.28</v>
       </c>
-      <c r="G36" s="44">
+      <c r="G36" s="40">
         <v>3</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -2114,8 +2166,8 @@
         <f t="shared" si="6"/>
         <v>81.262999999999991</v>
       </c>
-      <c r="N36" s="38"/>
-      <c r="O36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="40"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -2135,8 +2187,8 @@
         <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="44"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="40"/>
       <c r="I37" s="1" t="s">
         <v>27</v>
       </c>
@@ -2154,8 +2206,8 @@
         <f t="shared" si="6"/>
         <v>123.49999999999997</v>
       </c>
-      <c r="N37" s="38"/>
-      <c r="O37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="40"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D38" s="6" t="s">
@@ -2186,8 +2238,8 @@
         <f t="shared" si="6"/>
         <v>20.747999999999998</v>
       </c>
-      <c r="N38" s="39"/>
-      <c r="O38" s="44"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="40"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D39" s="6" t="s">
@@ -2317,7 +2369,7 @@
         <f t="shared" ref="M45:M49" si="7">L45*J45</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="N45" s="41">
+      <c r="N45" s="37">
         <f>L45+L46+L47</f>
         <v>0.84000000000000008</v>
       </c>
@@ -2356,7 +2408,7 @@
         <f t="shared" si="7"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="N46" s="42"/>
+      <c r="N46" s="38"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -2392,7 +2444,7 @@
         <f t="shared" si="7"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="N47" s="43"/>
+      <c r="N47" s="39"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -2428,7 +2480,7 @@
         <f t="shared" si="7"/>
         <v>0.68</v>
       </c>
-      <c r="N48" s="41">
+      <c r="N48" s="37">
         <f>L45+L46+L48+L49</f>
         <v>1.2400000000000002</v>
       </c>
@@ -2450,29 +2502,10 @@
         <f t="shared" si="7"/>
         <v>0.68</v>
       </c>
-      <c r="N49" s="43"/>
+      <c r="N49" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="N45:N47"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="O32:O38"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="N32:N38"/>
-    <mergeCell ref="N22:N24"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="V10:V12"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="O10:O16"/>
-    <mergeCell ref="N10:N16"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="I20:N20"/>
     <mergeCell ref="F10:F13"/>
@@ -2482,6 +2515,25 @@
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="I8:N8"/>
     <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="N22:N24"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="V10:V12"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="O10:O16"/>
+    <mergeCell ref="N10:N16"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="N32:N38"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="N45:N47"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="O32:O38"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2505,14 +2557,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:AX21"/>
+  <dimension ref="B1:AZ21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6328125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2520,100 +2572,106 @@
     <col min="1" max="16384" width="15.6328125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="T1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="U1" s="28">
+      <c r="W1" s="28">
         <v>0.69</v>
       </c>
-      <c r="V1" s="16">
+      <c r="X1" s="16">
         <v>0.49399999999999999</v>
       </c>
-      <c r="W1" s="16">
+      <c r="Y1" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="27">
         <v>0.5</v>
       </c>
-      <c r="R2" s="27">
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="T2" s="27">
         <v>0.5</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="V2" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="27">
+      <c r="W2" s="27">
         <v>4</v>
       </c>
-      <c r="V2" s="27">
+      <c r="X2" s="27">
         <v>4</v>
       </c>
-      <c r="W2" s="27">
+      <c r="Y2" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="21"/>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
-      <c r="T3" s="48" t="s">
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="V3" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="48"/>
-      <c r="AP3" s="48"/>
-      <c r="AQ3" s="48"/>
-      <c r="AR3" s="48"/>
-      <c r="AS3" s="48"/>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="21"/>
-    </row>
-    <row r="4" spans="2:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="46"/>
+      <c r="AT3" s="46"/>
+      <c r="AU3" s="46"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="21"/>
+    </row>
+    <row r="4" spans="2:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="21" t="s">
         <v>71</v>
       </c>
@@ -2621,209 +2679,221 @@
         <v>82</v>
       </c>
       <c r="E4" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="H4" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="I4" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="J4" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="K4" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="L4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="M4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="N4" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
-      <c r="T4" s="49" t="s">
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="V4" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="49" t="s">
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
       <c r="AH4" s="21"/>
       <c r="AI4" s="21"/>
-      <c r="AJ4" s="49" t="s">
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="49"/>
-      <c r="AN4" s="49"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="21"/>
-      <c r="AQ4" s="21"/>
-      <c r="AR4" s="49" t="s">
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="21"/>
+      <c r="AS4" s="21"/>
+      <c r="AT4" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="AS4" s="49"/>
-      <c r="AT4" s="49"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="49"/>
-      <c r="AW4" s="49"/>
-      <c r="AX4" s="21"/>
-    </row>
-    <row r="5" spans="2:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="21"/>
+    </row>
+    <row r="5" spans="2:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="19"/>
       <c r="D5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="J5" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="L5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="M5" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="N5" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="O5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="P5" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="Q5" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="R5" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="Q5" s="22" t="s">
+      <c r="S5" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="T5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="V5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="U5" s="15" t="s">
+      <c r="W5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="V5" s="16" t="s">
+      <c r="X5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="W5" s="17" t="s">
+      <c r="Y5" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="X5" s="30" t="s">
+      <c r="Z5" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="Y5" s="31" t="s">
+      <c r="AA5" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="Z5" s="31" t="s">
+      <c r="AB5" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="AB5" s="12" t="s">
+      <c r="AD5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" s="15" t="s">
+      <c r="AE5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AD5" s="16" t="s">
+      <c r="AF5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="AE5" s="17" t="s">
+      <c r="AG5" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="AF5" s="30" t="s">
+      <c r="AH5" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="AG5" s="31" t="s">
+      <c r="AI5" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AH5" s="31" t="s">
+      <c r="AJ5" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="AJ5" s="12" t="s">
+      <c r="AL5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AK5" s="15" t="s">
+      <c r="AM5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AL5" s="16" t="s">
+      <c r="AN5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="AM5" s="17" t="s">
+      <c r="AO5" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="AN5" s="30" t="s">
+      <c r="AP5" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="AO5" s="31" t="s">
+      <c r="AQ5" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AP5" s="31" t="s">
+      <c r="AR5" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="AR5" s="12" t="s">
+      <c r="AT5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AS5" s="15" t="s">
+      <c r="AU5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AT5" s="16" t="s">
+      <c r="AV5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="AU5" s="17" t="s">
+      <c r="AW5" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="AV5" s="30" t="s">
+      <c r="AX5" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="AW5" s="31" t="s">
+      <c r="AY5" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AX5" s="31" t="s">
+      <c r="AZ5" s="31" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="46">
+    <row r="6" spans="2:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="48">
         <v>0</v>
       </c>
       <c r="C6" s="19">
@@ -2832,306 +2902,318 @@
       <c r="D6" s="12">
         <v>2</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="51">
         <v>2</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="52">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
         <v>2</v>
       </c>
-      <c r="G6" s="14">
+      <c r="H6" s="13">
+        <v>2</v>
+      </c>
+      <c r="I6" s="14">
         <v>1.01</v>
       </c>
-      <c r="H6" s="14">
+      <c r="J6" s="14">
         <v>1</v>
       </c>
-      <c r="I6" s="15">
+      <c r="K6" s="15">
         <v>22</v>
       </c>
-      <c r="J6" s="16">
+      <c r="L6" s="16">
         <v>4</v>
       </c>
-      <c r="K6" s="17">
-        <v>0</v>
-      </c>
-      <c r="L6" s="23">
+      <c r="M6" s="17">
+        <v>0</v>
+      </c>
+      <c r="N6" s="23">
         <v>1</v>
       </c>
-      <c r="M6" s="24">
-        <f>(D6+F6+E6)*G6*H6</f>
+      <c r="O6" s="24">
+        <f>(D6+H6+G6)*I6*J6</f>
         <v>6.0600000000000005</v>
       </c>
-      <c r="N6" s="25">
-        <f>J6*(1+(K6*0.02))</f>
+      <c r="P6" s="25">
+        <f>L6*(1+(M6*0.02))</f>
         <v>4</v>
       </c>
-      <c r="O6" s="22">
-        <f>(T6-MAX($D$2,N6))*L6</f>
+      <c r="Q6" s="22">
+        <f>(V6-MAX($D$2,P6))*N6</f>
         <v>2</v>
       </c>
-      <c r="P6" s="22">
-        <f>I6/O6</f>
+      <c r="R6" s="22">
+        <f>K6/Q6</f>
         <v>11</v>
       </c>
-      <c r="Q6" s="22">
-        <f>(AB6-MAX($D$2,N6))*L6</f>
+      <c r="S6" s="22">
+        <f>(AD6-MAX($D$2,P6))*N6</f>
         <v>4</v>
       </c>
-      <c r="R6" s="22">
-        <f>I6/Q6</f>
+      <c r="T6" s="22">
+        <f>K6/S6</f>
         <v>5.5</v>
       </c>
-      <c r="T6" s="12">
+      <c r="V6" s="12">
         <v>6</v>
       </c>
-      <c r="U6" s="15">
+      <c r="W6" s="15">
         <v>20</v>
       </c>
-      <c r="V6" s="16">
+      <c r="X6" s="16">
         <v>2</v>
       </c>
-      <c r="W6" s="17">
-        <v>0</v>
-      </c>
-      <c r="X6" s="17">
-        <f>V6*(1+(0.02*W6))</f>
+      <c r="Y6" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="17">
+        <f>X6*(1+(0.02*Y6))</f>
         <v>2</v>
       </c>
-      <c r="Y6" s="20">
-        <f>(MAX($M6*$U$1-V6, $R$2)*$U$2)+(MAX($M6*$V$1-V6, $R$2)*$V$2)+(MAX($M6*$W$1-V6, $R$2)*$W$2)</f>
+      <c r="AA6" s="20">
+        <f>(MAX($O6*$W$1-X6, $T$2)*$W$2)+(MAX($O6*$X$1-X6, $T$2)*$X$2)+(MAX($O6*$Y$1-X6, $T$2)*$Y$2)</f>
         <v>16.760159999999999</v>
       </c>
-      <c r="Z6" s="20">
-        <f>U6/Y6</f>
+      <c r="AB6" s="20">
+        <f>W6/AA6</f>
         <v>1.1933060304913559</v>
       </c>
-      <c r="AB6" s="12">
+      <c r="AD6" s="12">
         <v>8</v>
       </c>
-      <c r="AC6" s="15">
+      <c r="AE6" s="15">
         <v>18</v>
       </c>
-      <c r="AD6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="17">
-        <f>AD6*(1+(0.02*AE6))</f>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="20">
-        <f>(MAX($M6*$U$1-AD6, $R$2)*$U$2)+(MAX($M6*$V$1-AD6, $R$2)*$V$2)+(MAX($M6*$W$1-AD6, $R$2)*$W$2)</f>
+      <c r="AF6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="17">
+        <f>AF6*(1+(0.02*AG6))</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="20">
+        <f>(MAX($O6*$W$1-AF6, $T$2)*$W$2)+(MAX($O6*$X$1-AF6, $T$2)*$X$2)+(MAX($O6*$Y$1-AF6, $T$2)*$Y$2)</f>
         <v>34.760159999999999</v>
       </c>
-      <c r="AH6" s="20">
-        <f>AC6/AG6</f>
+      <c r="AJ6" s="20">
+        <f>AE6/AI6</f>
         <v>0.51783421019926257</v>
       </c>
-      <c r="AJ6" s="12">
+      <c r="AL6" s="12">
         <v>4</v>
       </c>
-      <c r="AK6" s="15">
+      <c r="AM6" s="15">
         <v>50</v>
       </c>
-      <c r="AL6" s="16">
+      <c r="AN6" s="16">
         <v>1</v>
       </c>
-      <c r="AM6" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="17">
-        <f>AL6*(1+(0.02*AM6))</f>
+      <c r="AO6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="17">
+        <f>AN6*(1+(0.02*AO6))</f>
         <v>1</v>
       </c>
-      <c r="AO6" s="20">
-        <f>(MAX($M6*$U$1-AL6, $R$2)*$U$2)+(MAX($M6*$V$1-AL6, $R$2)*$V$2)+(MAX($M6*$W$1-AL6, $R$2)*$W$2)</f>
+      <c r="AQ6" s="20">
+        <f>(MAX($O6*$W$1-AN6, $T$2)*$W$2)+(MAX($O6*$X$1-AN6, $T$2)*$X$2)+(MAX($O6*$Y$1-AN6, $T$2)*$Y$2)</f>
         <v>25.760159999999999</v>
       </c>
-      <c r="AP6" s="20">
-        <f>AK6/AO6</f>
+      <c r="AR6" s="20">
+        <f>AM6/AQ6</f>
         <v>1.9409817330327142</v>
       </c>
-      <c r="AR6" s="12">
+      <c r="AT6" s="12">
         <v>4</v>
       </c>
-      <c r="AS6" s="15">
+      <c r="AU6" s="15">
         <v>20</v>
       </c>
-      <c r="AT6" s="16">
+      <c r="AV6" s="16">
         <v>3</v>
       </c>
-      <c r="AU6" s="17">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="17">
-        <f>AT6*(1+(0.02*AU6))</f>
+      <c r="AW6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="17">
+        <f>AV6*(1+(0.02*AW6))</f>
         <v>3</v>
       </c>
-      <c r="AW6" s="20">
-        <f>(MAX($M6*$U$1-AT6, $R$2)*$U$2)+(MAX($M6*$V$1-AT6, $R$2)*$V$2)+(MAX($M6*$W$1-AT6, $R$2)*$W$2)</f>
+      <c r="AY6" s="20">
+        <f>(MAX($O6*$W$1-AV6, $T$2)*$W$2)+(MAX($O6*$X$1-AV6, $T$2)*$X$2)+(MAX($O6*$Y$1-AV6, $T$2)*$Y$2)</f>
         <v>9.7856000000000005</v>
       </c>
-      <c r="AX6" s="20">
-        <f>AS6/AW6</f>
+      <c r="AZ6" s="20">
+        <f>AU6/AY6</f>
         <v>2.0438194898626554</v>
       </c>
     </row>
-    <row r="7" spans="2:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46"/>
+    <row r="7" spans="2:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="48"/>
       <c r="C7" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D7" s="12">
         <v>6</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="52">
+        <v>3</v>
+      </c>
+      <c r="F7" s="52">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
         <v>4</v>
       </c>
-      <c r="F7" s="13">
+      <c r="H7" s="13">
         <v>4</v>
       </c>
-      <c r="G7" s="14">
+      <c r="I7" s="14">
         <v>1.01</v>
       </c>
-      <c r="H7" s="14">
+      <c r="J7" s="14">
         <v>1.05</v>
       </c>
-      <c r="I7" s="15">
+      <c r="K7" s="15">
         <v>40</v>
       </c>
-      <c r="J7" s="16">
+      <c r="L7" s="16">
         <v>8</v>
       </c>
-      <c r="K7" s="17">
+      <c r="M7" s="17">
         <v>2</v>
       </c>
-      <c r="L7" s="23">
+      <c r="N7" s="23">
         <v>1</v>
       </c>
-      <c r="M7" s="24">
-        <f t="shared" ref="M7:M10" si="0">(D7+F7+E7)*G7*H7</f>
+      <c r="O7" s="24">
+        <f>(D7+H7+G7)*I7*J7</f>
         <v>14.847000000000001</v>
       </c>
-      <c r="N7" s="25">
-        <f t="shared" ref="N7:N10" si="1">J7*(1+(K7*0.02))</f>
+      <c r="P7" s="25">
+        <f t="shared" ref="P7:P10" si="0">L7*(1+(M7*0.02))</f>
         <v>8.32</v>
       </c>
-      <c r="O7" s="22">
-        <f>(T7-MAX($D$2,N7))*L7</f>
+      <c r="Q7" s="22">
+        <f>(V7-MAX($D$2,P7))*N7</f>
         <v>3.6799999999999997</v>
       </c>
-      <c r="P7" s="22">
-        <f>I7/O7</f>
+      <c r="R7" s="22">
+        <f>K7/Q7</f>
         <v>10.869565217391305</v>
       </c>
-      <c r="Q7" s="22">
-        <f>(AB7-MAX($D$2,N7))*L7</f>
+      <c r="S7" s="22">
+        <f>(AD7-MAX($D$2,P7))*N7</f>
         <v>7.68</v>
       </c>
-      <c r="R7" s="22">
-        <f>I7/Q7</f>
+      <c r="T7" s="22">
+        <f>K7/S7</f>
         <v>5.2083333333333339</v>
       </c>
-      <c r="T7" s="12">
+      <c r="V7" s="12">
         <v>12</v>
       </c>
-      <c r="U7" s="15">
+      <c r="W7" s="15">
         <v>55</v>
       </c>
-      <c r="V7" s="16">
+      <c r="X7" s="16">
         <v>4</v>
       </c>
-      <c r="W7" s="17">
-        <v>0</v>
-      </c>
-      <c r="X7" s="17">
-        <f>V7*(1+(0.02*W7))</f>
+      <c r="Y7" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="17">
+        <f>X7*(1+(0.02*Y7))</f>
         <v>4</v>
       </c>
-      <c r="Y7" s="20">
-        <f>(MAX($M7*$U$1-V7, $R$2)*$U$2)+(MAX($M7*$V$1-V7, $R$2)*$V$2)+(MAX($M7*$W$1-V7, $R$2)*$W$2)</f>
+      <c r="AA7" s="20">
+        <f>(MAX($O7*$W$1-X7, $T$2)*$W$2)+(MAX($O7*$X$1-X7, $T$2)*$X$2)+(MAX($O7*$Y$1-X7, $T$2)*$Y$2)</f>
         <v>49.162392000000004</v>
       </c>
-      <c r="Z7" s="20">
-        <f>U7/Y7</f>
+      <c r="AB7" s="20">
+        <f>W7/AA7</f>
         <v>1.1187413338228132</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AD7" s="12">
         <v>16</v>
       </c>
-      <c r="AC7" s="15">
+      <c r="AE7" s="15">
         <v>35</v>
       </c>
-      <c r="AD7" s="16">
+      <c r="AF7" s="16">
         <v>2</v>
       </c>
-      <c r="AE7" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="17">
-        <f>AD7*(1+(0.02*AE7))</f>
+      <c r="AG7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="17">
+        <f>AF7*(1+(0.02*AG7))</f>
         <v>2</v>
       </c>
-      <c r="AG7" s="20">
-        <f t="shared" ref="AG7:AG10" si="2">(MAX($M7*$U$1-AD7, $R$2)*$U$2)+(MAX($M7*$V$1-AD7, $R$2)*$V$2)+(MAX($M7*$W$1-AD7, $R$2)*$W$2)</f>
+      <c r="AI7" s="20">
+        <f t="shared" ref="AI7:AI10" si="1">(MAX($O7*$W$1-AF7, $T$2)*$W$2)+(MAX($O7*$X$1-AF7, $T$2)*$X$2)+(MAX($O7*$Y$1-AF7, $T$2)*$Y$2)</f>
         <v>67.162392000000011</v>
       </c>
-      <c r="AH7" s="20">
-        <f t="shared" ref="AH7:AH10" si="3">AC7/AG7</f>
+      <c r="AJ7" s="20">
+        <f t="shared" ref="AJ7:AJ10" si="2">AE7/AI7</f>
         <v>0.52112497720450446</v>
       </c>
-      <c r="AJ7" s="12">
+      <c r="AL7" s="12">
         <v>10</v>
       </c>
-      <c r="AK7" s="15">
+      <c r="AM7" s="15">
         <v>120</v>
       </c>
-      <c r="AL7" s="16">
+      <c r="AN7" s="16">
         <v>3</v>
       </c>
-      <c r="AM7" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="17">
-        <f>AL7*(1+(0.02*AM7))</f>
+      <c r="AO7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="17">
+        <f>AN7*(1+(0.02*AO7))</f>
         <v>3</v>
       </c>
-      <c r="AO7" s="20">
-        <f t="shared" ref="AO7:AO10" si="4">(MAX($M7*$U$1-AL7, $R$2)*$U$2)+(MAX($M7*$V$1-AL7, $R$2)*$V$2)+(MAX($M7*$W$1-AL7, $R$2)*$W$2)</f>
+      <c r="AQ7" s="20">
+        <f t="shared" ref="AQ7:AQ10" si="3">(MAX($O7*$W$1-AN7, $T$2)*$W$2)+(MAX($O7*$X$1-AN7, $T$2)*$X$2)+(MAX($O7*$Y$1-AN7, $T$2)*$Y$2)</f>
         <v>58.162392000000004</v>
       </c>
-      <c r="AP7" s="20">
-        <f t="shared" ref="AP7:AP10" si="5">AK7/AO7</f>
+      <c r="AR7" s="20">
+        <f t="shared" ref="AR7:AR10" si="4">AM7/AQ7</f>
         <v>2.0631888729748251</v>
       </c>
-      <c r="AR7" s="12">
+      <c r="AT7" s="12">
         <v>10</v>
       </c>
-      <c r="AS7" s="15">
+      <c r="AU7" s="15">
         <v>55</v>
       </c>
-      <c r="AT7" s="16">
+      <c r="AV7" s="16">
         <v>7</v>
       </c>
-      <c r="AU7" s="17">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="17">
-        <f>AT7*(1+(0.02*AU7))</f>
+      <c r="AW7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="17">
+        <f>AV7*(1+(0.02*AW7))</f>
         <v>7</v>
       </c>
-      <c r="AW7" s="20">
-        <f t="shared" ref="AW7:AW10" si="6">(MAX($M7*$U$1-AT7, $R$2)*$U$2)+(MAX($M7*$V$1-AT7, $R$2)*$V$2)+(MAX($M7*$W$1-AT7, $R$2)*$W$2)</f>
+      <c r="AY7" s="20">
+        <f t="shared" ref="AY7:AY10" si="5">(MAX($O7*$W$1-AV7, $T$2)*$W$2)+(MAX($O7*$X$1-AV7, $T$2)*$X$2)+(MAX($O7*$Y$1-AV7, $T$2)*$Y$2)</f>
         <v>22.824719999999999</v>
       </c>
-      <c r="AX7" s="20">
-        <f t="shared" ref="AX7:AX10" si="7">AS7/AW7</f>
+      <c r="AZ7" s="20">
+        <f t="shared" ref="AZ7:AZ10" si="6">AU7/AY7</f>
         <v>2.4096681142200214</v>
       </c>
     </row>
-    <row r="8" spans="2:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="46">
+    <row r="8" spans="2:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="48">
         <v>1</v>
       </c>
       <c r="C8" s="18">
@@ -3140,306 +3222,318 @@
       <c r="D8" s="12">
         <v>8</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="52">
+        <v>3</v>
+      </c>
+      <c r="F8" s="52">
+        <v>5</v>
+      </c>
+      <c r="G8" s="12">
         <v>8</v>
       </c>
-      <c r="F8" s="13">
+      <c r="H8" s="13">
         <v>6</v>
       </c>
-      <c r="G8" s="14">
+      <c r="I8" s="14">
         <v>1.05</v>
       </c>
-      <c r="H8" s="14">
+      <c r="J8" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I8" s="15">
+      <c r="K8" s="15">
         <v>100</v>
       </c>
-      <c r="J8" s="16">
+      <c r="L8" s="16">
         <v>12</v>
       </c>
-      <c r="K8" s="17">
+      <c r="M8" s="17">
         <v>4</v>
       </c>
-      <c r="L8" s="23">
+      <c r="N8" s="23">
         <v>0.95</v>
       </c>
-      <c r="M8" s="24">
+      <c r="O8" s="24">
+        <f>(D8+H8+G8)*I8*J8</f>
+        <v>25.410000000000004</v>
+      </c>
+      <c r="P8" s="25">
         <f t="shared" si="0"/>
-        <v>25.410000000000004</v>
-      </c>
-      <c r="N8" s="25">
+        <v>12.96</v>
+      </c>
+      <c r="Q8" s="22">
+        <f>(V8-MAX($D$2,P8))*N8</f>
+        <v>9.5379999999999985</v>
+      </c>
+      <c r="R8" s="22">
+        <f>K8/Q8</f>
+        <v>10.484378276368213</v>
+      </c>
+      <c r="S8" s="22">
+        <f>(AD8-MAX($D$2,P8))*N8</f>
+        <v>18.087999999999997</v>
+      </c>
+      <c r="T8" s="22">
+        <f>K8/S8</f>
+        <v>5.5285272003538264</v>
+      </c>
+      <c r="V8" s="12">
+        <v>23</v>
+      </c>
+      <c r="W8" s="15">
+        <v>110</v>
+      </c>
+      <c r="X8" s="16">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="17">
+        <f>X8*(1+(0.02*Y8))</f>
+        <v>6</v>
+      </c>
+      <c r="AA8" s="20">
+        <f>(MAX($O8*$W$1-X8, $T$2)*$W$2)+(MAX($O8*$X$1-X8, $T$2)*$X$2)+(MAX($O8*$Y$1-X8, $T$2)*$Y$2)</f>
+        <v>91.751760000000019</v>
+      </c>
+      <c r="AB8" s="20">
+        <f>W8/AA8</f>
+        <v>1.1988870840188786</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>32</v>
+      </c>
+      <c r="AE8" s="15">
+        <v>64</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>3</v>
+      </c>
+      <c r="AG8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="17">
+        <f>AF8*(1+(0.02*AG8))</f>
+        <v>3</v>
+      </c>
+      <c r="AI8" s="20">
         <f t="shared" si="1"/>
-        <v>12.96</v>
-      </c>
-      <c r="O8" s="22">
-        <f>(T8-MAX($D$2,N8))*L8</f>
-        <v>9.5379999999999985</v>
-      </c>
-      <c r="P8" s="22">
-        <f>I8/O8</f>
-        <v>10.484378276368213</v>
-      </c>
-      <c r="Q8" s="22">
-        <f>(AB8-MAX($D$2,N8))*L8</f>
-        <v>18.087999999999997</v>
-      </c>
-      <c r="R8" s="22">
-        <f>I8/Q8</f>
-        <v>5.5285272003538264</v>
-      </c>
-      <c r="T8" s="12">
-        <v>23</v>
-      </c>
-      <c r="U8" s="15">
+        <v>118.75176000000002</v>
+      </c>
+      <c r="AJ8" s="20">
+        <f t="shared" si="2"/>
+        <v>0.53893938077212489</v>
+      </c>
+      <c r="AL8" s="12">
+        <v>19</v>
+      </c>
+      <c r="AM8" s="15">
+        <v>240</v>
+      </c>
+      <c r="AN8" s="16">
+        <v>4</v>
+      </c>
+      <c r="AO8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="17">
+        <f>AN8*(1+(0.02*AO8))</f>
+        <v>4</v>
+      </c>
+      <c r="AQ8" s="20">
+        <f t="shared" si="3"/>
+        <v>109.75176000000002</v>
+      </c>
+      <c r="AR8" s="20">
+        <f t="shared" si="4"/>
+        <v>2.1867530871486704</v>
+      </c>
+      <c r="AT8" s="12">
+        <v>19</v>
+      </c>
+      <c r="AU8" s="15">
         <v>110</v>
       </c>
-      <c r="V8" s="16">
-        <v>6</v>
-      </c>
-      <c r="W8" s="17">
-        <v>0</v>
-      </c>
-      <c r="X8" s="17">
-        <f>V8*(1+(0.02*W8))</f>
-        <v>6</v>
-      </c>
-      <c r="Y8" s="20">
-        <f>(MAX($M8*$U$1-V8, $R$2)*$U$2)+(MAX($M8*$V$1-V8, $R$2)*$V$2)+(MAX($M8*$W$1-V8, $R$2)*$W$2)</f>
-        <v>91.751760000000019</v>
-      </c>
-      <c r="Z8" s="20">
-        <f>U8/Y8</f>
-        <v>1.1988870840188786</v>
-      </c>
-      <c r="AB8" s="12">
-        <v>32</v>
-      </c>
-      <c r="AC8" s="15">
-        <v>64</v>
-      </c>
-      <c r="AD8" s="16">
-        <v>3</v>
-      </c>
-      <c r="AE8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="17">
-        <f>AD8*(1+(0.02*AE8))</f>
-        <v>3</v>
-      </c>
-      <c r="AG8" s="20">
-        <f t="shared" si="2"/>
-        <v>118.75176000000002</v>
-      </c>
-      <c r="AH8" s="20">
-        <f t="shared" si="3"/>
-        <v>0.53893938077212489</v>
-      </c>
-      <c r="AJ8" s="12">
-        <v>19</v>
-      </c>
-      <c r="AK8" s="15">
-        <v>240</v>
-      </c>
-      <c r="AL8" s="16">
-        <v>4</v>
-      </c>
-      <c r="AM8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="17">
-        <f>AL8*(1+(0.02*AM8))</f>
-        <v>4</v>
-      </c>
-      <c r="AO8" s="20">
-        <f t="shared" si="4"/>
-        <v>109.75176000000002</v>
-      </c>
-      <c r="AP8" s="20">
+      <c r="AV8" s="16">
+        <v>12</v>
+      </c>
+      <c r="AW8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="17">
+        <f>AV8*(1+(0.02*AW8))</f>
+        <v>12</v>
+      </c>
+      <c r="AY8" s="20">
         <f t="shared" si="5"/>
-        <v>2.1867530871486704</v>
-      </c>
-      <c r="AR8" s="12">
-        <v>19</v>
-      </c>
-      <c r="AS8" s="15">
-        <v>110</v>
-      </c>
-      <c r="AT8" s="16">
-        <v>12</v>
-      </c>
-      <c r="AU8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="17">
-        <f>AT8*(1+(0.02*AU8))</f>
-        <v>12</v>
-      </c>
-      <c r="AW8" s="20">
+        <v>37.751760000000019</v>
+      </c>
+      <c r="AZ8" s="20">
         <f t="shared" si="6"/>
-        <v>37.751760000000019</v>
-      </c>
-      <c r="AX8" s="20">
-        <f t="shared" si="7"/>
         <v>2.9137714374111283</v>
       </c>
     </row>
-    <row r="9" spans="2:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="46"/>
+    <row r="9" spans="2:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="48"/>
       <c r="C9" s="19">
         <v>1.3</v>
       </c>
       <c r="D9" s="12">
         <v>16</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="52">
+        <v>5</v>
+      </c>
+      <c r="F9" s="52">
+        <v>5</v>
+      </c>
+      <c r="G9" s="12">
         <v>10</v>
       </c>
-      <c r="F9" s="13">
+      <c r="H9" s="13">
         <v>8</v>
       </c>
-      <c r="G9" s="14">
+      <c r="I9" s="14">
         <v>1.05</v>
       </c>
-      <c r="H9" s="14">
+      <c r="J9" s="14">
         <v>1.2</v>
       </c>
-      <c r="I9" s="15">
+      <c r="K9" s="15">
         <v>200</v>
       </c>
-      <c r="J9" s="16">
+      <c r="L9" s="16">
         <v>16</v>
       </c>
-      <c r="K9" s="17">
+      <c r="M9" s="17">
         <v>6</v>
       </c>
-      <c r="L9" s="23">
+      <c r="N9" s="23">
         <v>0.95</v>
       </c>
-      <c r="M9" s="24">
+      <c r="O9" s="24">
+        <f>(D9+H9+G9)*I9*J9</f>
+        <v>42.84</v>
+      </c>
+      <c r="P9" s="25">
         <f t="shared" si="0"/>
-        <v>42.84</v>
-      </c>
-      <c r="N9" s="25">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="Q9" s="22">
+        <f>(V9-MAX($D$2,P9))*N9</f>
+        <v>19.075999999999997</v>
+      </c>
+      <c r="R9" s="22">
+        <f>K9/Q9</f>
+        <v>10.484378276368213</v>
+      </c>
+      <c r="S9" s="22">
+        <f>(AD9-MAX($D$2,P9))*N9</f>
+        <v>38.075999999999993</v>
+      </c>
+      <c r="T9" s="22">
+        <f>K9/S9</f>
+        <v>5.2526525895577274</v>
+      </c>
+      <c r="V9" s="12">
+        <v>38</v>
+      </c>
+      <c r="W9" s="15">
+        <v>210</v>
+      </c>
+      <c r="X9" s="16">
+        <v>8</v>
+      </c>
+      <c r="Y9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="17">
+        <f>X9*(1+(0.02*Y9))</f>
+        <v>8</v>
+      </c>
+      <c r="AA9" s="20">
+        <f>(MAX($O9*$W$1-X9, $T$2)*$W$2)+(MAX($O9*$X$1-X9, $T$2)*$X$2)+(MAX($O9*$Y$1-X9, $T$2)*$Y$2)</f>
+        <v>173.73024000000001</v>
+      </c>
+      <c r="AB9" s="20">
+        <f>W9/AA9</f>
+        <v>1.2087705629140901</v>
+      </c>
+      <c r="AD9" s="12">
+        <v>58</v>
+      </c>
+      <c r="AE9" s="15">
+        <v>115</v>
+      </c>
+      <c r="AF9" s="16">
+        <v>4</v>
+      </c>
+      <c r="AG9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="17">
+        <f>AF9*(1+(0.02*AG9))</f>
+        <v>4</v>
+      </c>
+      <c r="AI9" s="20">
         <f t="shared" si="1"/>
-        <v>17.920000000000002</v>
-      </c>
-      <c r="O9" s="22">
-        <f>(T9-MAX($D$2,N9))*L9</f>
-        <v>19.075999999999997</v>
-      </c>
-      <c r="P9" s="22">
-        <f>I9/O9</f>
-        <v>10.484378276368213</v>
-      </c>
-      <c r="Q9" s="22">
-        <f>(AB9-MAX($D$2,N9))*L9</f>
-        <v>38.075999999999993</v>
-      </c>
-      <c r="R9" s="22">
-        <f>I9/Q9</f>
-        <v>5.2526525895577274</v>
-      </c>
-      <c r="T9" s="12">
-        <v>38</v>
-      </c>
-      <c r="U9" s="15">
+        <v>209.73024000000001</v>
+      </c>
+      <c r="AJ9" s="20">
+        <f t="shared" si="2"/>
+        <v>0.54832340820284187</v>
+      </c>
+      <c r="AL9" s="12">
+        <v>31</v>
+      </c>
+      <c r="AM9" s="15">
+        <v>420</v>
+      </c>
+      <c r="AN9" s="16">
+        <v>6</v>
+      </c>
+      <c r="AO9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="17">
+        <f>AN9*(1+(0.02*AO9))</f>
+        <v>6</v>
+      </c>
+      <c r="AQ9" s="20">
+        <f t="shared" si="3"/>
+        <v>191.73024000000001</v>
+      </c>
+      <c r="AR9" s="20">
+        <f t="shared" si="4"/>
+        <v>2.1905777617552662</v>
+      </c>
+      <c r="AT9" s="12">
+        <v>31</v>
+      </c>
+      <c r="AU9" s="15">
         <v>210</v>
       </c>
-      <c r="V9" s="16">
-        <v>8</v>
-      </c>
-      <c r="W9" s="17">
-        <v>0</v>
-      </c>
-      <c r="X9" s="17">
-        <f>V9*(1+(0.02*W9))</f>
-        <v>8</v>
-      </c>
-      <c r="Y9" s="20">
-        <f>(MAX($M9*$U$1-V9, $R$2)*$U$2)+(MAX($M9*$V$1-V9, $R$2)*$V$2)+(MAX($M9*$W$1-V9, $R$2)*$W$2)</f>
-        <v>173.73024000000001</v>
-      </c>
-      <c r="Z9" s="20">
-        <f>U9/Y9</f>
-        <v>1.2087705629140901</v>
-      </c>
-      <c r="AB9" s="12">
-        <v>58</v>
-      </c>
-      <c r="AC9" s="15">
-        <v>115</v>
-      </c>
-      <c r="AD9" s="16">
-        <v>4</v>
-      </c>
-      <c r="AE9" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="17">
-        <f>AD9*(1+(0.02*AE9))</f>
-        <v>4</v>
-      </c>
-      <c r="AG9" s="20">
-        <f t="shared" si="2"/>
-        <v>209.73024000000001</v>
-      </c>
-      <c r="AH9" s="20">
-        <f t="shared" si="3"/>
-        <v>0.54832340820284187</v>
-      </c>
-      <c r="AJ9" s="12">
-        <v>31</v>
-      </c>
-      <c r="AK9" s="15">
-        <v>420</v>
-      </c>
-      <c r="AL9" s="16">
-        <v>6</v>
-      </c>
-      <c r="AM9" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="17">
-        <f>AL9*(1+(0.02*AM9))</f>
-        <v>6</v>
-      </c>
-      <c r="AO9" s="20">
-        <f t="shared" si="4"/>
-        <v>191.73024000000001</v>
-      </c>
-      <c r="AP9" s="20">
+      <c r="AV9" s="16">
+        <v>20</v>
+      </c>
+      <c r="AW9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="17">
+        <f>AV9*(1+(0.02*AW9))</f>
+        <v>20</v>
+      </c>
+      <c r="AY9" s="20">
         <f t="shared" si="5"/>
-        <v>2.1905777617552662</v>
-      </c>
-      <c r="AR9" s="12">
-        <v>31</v>
-      </c>
-      <c r="AS9" s="15">
-        <v>210</v>
-      </c>
-      <c r="AT9" s="16">
-        <v>20</v>
-      </c>
-      <c r="AU9" s="17">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="17">
-        <f>AT9*(1+(0.02*AU9))</f>
-        <v>20</v>
-      </c>
-      <c r="AW9" s="20">
+        <v>65.730240000000009</v>
+      </c>
+      <c r="AZ9" s="20">
         <f t="shared" si="6"/>
-        <v>65.730240000000009</v>
-      </c>
-      <c r="AX9" s="20">
-        <f t="shared" si="7"/>
         <v>3.1948765134586452</v>
       </c>
     </row>
-    <row r="10" spans="2:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="47">
+    <row r="10" spans="2:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="49">
         <v>2</v>
       </c>
       <c r="C10" s="18">
@@ -3448,309 +3542,321 @@
       <c r="D10" s="12">
         <v>24</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="52">
+        <v>10</v>
+      </c>
+      <c r="F10" s="52">
+        <v>10</v>
+      </c>
+      <c r="G10" s="12">
         <v>20</v>
       </c>
-      <c r="F10" s="13">
+      <c r="H10" s="13">
         <v>12</v>
       </c>
-      <c r="G10" s="14">
+      <c r="I10" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H10" s="14">
+      <c r="J10" s="14">
         <v>1.3</v>
       </c>
-      <c r="I10" s="15">
+      <c r="K10" s="15">
         <v>340</v>
       </c>
-      <c r="J10" s="16">
+      <c r="L10" s="16">
         <v>20</v>
       </c>
-      <c r="K10" s="17">
+      <c r="M10" s="17">
         <v>8</v>
       </c>
-      <c r="L10" s="23">
+      <c r="N10" s="23">
         <v>0.9</v>
       </c>
-      <c r="M10" s="24">
+      <c r="O10" s="24">
+        <f>(D10+H10+G10)*I10*J10</f>
+        <v>80.080000000000013</v>
+      </c>
+      <c r="P10" s="25">
         <f t="shared" si="0"/>
-        <v>80.080000000000013</v>
-      </c>
-      <c r="N10" s="25">
+        <v>23.2</v>
+      </c>
+      <c r="Q10" s="22">
+        <f>(V10-MAX($D$2,P10))*N10</f>
+        <v>31.319999999999997</v>
+      </c>
+      <c r="R10" s="22">
+        <f>K10/Q10</f>
+        <v>10.855683269476375</v>
+      </c>
+      <c r="S10" s="22">
+        <f>(AD10-MAX($D$2,P10))*N10</f>
+        <v>64.62</v>
+      </c>
+      <c r="T10" s="22">
+        <f>K10/S10</f>
+        <v>5.2615289384091612</v>
+      </c>
+      <c r="V10" s="12">
+        <v>58</v>
+      </c>
+      <c r="W10" s="15">
+        <v>450</v>
+      </c>
+      <c r="X10" s="16">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="17">
+        <f>X10*(1+(0.02*Y10))</f>
+        <v>10</v>
+      </c>
+      <c r="AA10" s="20">
+        <f>(MAX($O10*$W$1-X10, $T$2)*$W$2)+(MAX($O10*$X$1-X10, $T$2)*$X$2)+(MAX($O10*$Y$1-X10, $T$2)*$Y$2)</f>
+        <v>369.33888000000002</v>
+      </c>
+      <c r="AB10" s="20">
+        <f>W10/AA10</f>
+        <v>1.2183932544550955</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>95</v>
+      </c>
+      <c r="AE10" s="15">
+        <v>225</v>
+      </c>
+      <c r="AF10" s="16">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="17">
+        <f>AF10*(1+(0.02*AG10))</f>
+        <v>5</v>
+      </c>
+      <c r="AI10" s="20">
         <f t="shared" si="1"/>
-        <v>23.2</v>
-      </c>
-      <c r="O10" s="22">
-        <f>(T10-MAX($D$2,N10))*L10</f>
-        <v>31.319999999999997</v>
-      </c>
-      <c r="P10" s="22">
-        <f>I10/O10</f>
-        <v>10.855683269476375</v>
-      </c>
-      <c r="Q10" s="22">
-        <f>(AB10-MAX($D$2,N10))*L10</f>
-        <v>64.62</v>
-      </c>
-      <c r="R10" s="22">
-        <f>I10/Q10</f>
-        <v>5.2615289384091612</v>
-      </c>
-      <c r="T10" s="12">
-        <v>58</v>
-      </c>
-      <c r="U10" s="15">
+        <v>414.33888000000002</v>
+      </c>
+      <c r="AJ10" s="20">
+        <f t="shared" si="2"/>
+        <v>0.54303376019165761</v>
+      </c>
+      <c r="AL10" s="12">
+        <v>47</v>
+      </c>
+      <c r="AM10" s="15">
+        <v>860</v>
+      </c>
+      <c r="AN10" s="16">
+        <v>8</v>
+      </c>
+      <c r="AO10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="17">
+        <f>AN10*(1+(0.02*AO10))</f>
+        <v>8</v>
+      </c>
+      <c r="AQ10" s="20">
+        <f t="shared" si="3"/>
+        <v>387.33888000000002</v>
+      </c>
+      <c r="AR10" s="20">
+        <f t="shared" si="4"/>
+        <v>2.2202780159843494</v>
+      </c>
+      <c r="AT10" s="12">
+        <v>47</v>
+      </c>
+      <c r="AU10" s="15">
         <v>450</v>
       </c>
-      <c r="V10" s="16">
-        <v>10</v>
-      </c>
-      <c r="W10" s="17">
-        <v>0</v>
-      </c>
-      <c r="X10" s="17">
-        <f>V10*(1+(0.02*W10))</f>
-        <v>10</v>
-      </c>
-      <c r="Y10" s="20">
-        <f>(MAX($M10*$U$1-V10, $R$2)*$U$2)+(MAX($M10*$V$1-V10, $R$2)*$V$2)+(MAX($M10*$W$1-V10, $R$2)*$W$2)</f>
-        <v>369.33888000000002</v>
-      </c>
-      <c r="Z10" s="20">
-        <f>U10/Y10</f>
-        <v>1.2183932544550955</v>
-      </c>
-      <c r="AB10" s="12">
-        <v>95</v>
-      </c>
-      <c r="AC10" s="15">
-        <v>225</v>
-      </c>
-      <c r="AD10" s="16">
-        <v>5</v>
-      </c>
-      <c r="AE10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="17">
-        <f>AD10*(1+(0.02*AE10))</f>
-        <v>5</v>
-      </c>
-      <c r="AG10" s="20">
-        <f t="shared" si="2"/>
-        <v>414.33888000000002</v>
-      </c>
-      <c r="AH10" s="20">
-        <f t="shared" si="3"/>
-        <v>0.54303376019165761</v>
-      </c>
-      <c r="AJ10" s="12">
-        <v>47</v>
-      </c>
-      <c r="AK10" s="15">
-        <v>860</v>
-      </c>
-      <c r="AL10" s="16">
-        <v>8</v>
-      </c>
-      <c r="AM10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="17">
-        <f>AL10*(1+(0.02*AM10))</f>
-        <v>8</v>
-      </c>
-      <c r="AO10" s="20">
-        <f t="shared" si="4"/>
-        <v>387.33888000000002</v>
-      </c>
-      <c r="AP10" s="20">
+      <c r="AV10" s="16">
+        <v>35</v>
+      </c>
+      <c r="AW10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="17">
+        <f>AV10*(1+(0.02*AW10))</f>
+        <v>35</v>
+      </c>
+      <c r="AY10" s="20">
         <f t="shared" si="5"/>
-        <v>2.2202780159843494</v>
-      </c>
-      <c r="AR10" s="12">
-        <v>47</v>
-      </c>
-      <c r="AS10" s="15">
-        <v>450</v>
-      </c>
-      <c r="AT10" s="16">
-        <v>35</v>
-      </c>
-      <c r="AU10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="17">
-        <f>AT10*(1+(0.02*AU10))</f>
-        <v>35</v>
-      </c>
-      <c r="AW10" s="20">
+        <v>144.33888000000005</v>
+      </c>
+      <c r="AZ10" s="20">
         <f t="shared" si="6"/>
-        <v>144.33888000000005</v>
-      </c>
-      <c r="AX10" s="20">
-        <f t="shared" si="7"/>
         <v>3.1176630995058288</v>
       </c>
     </row>
-    <row r="11" spans="2:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
-    </row>
-    <row r="12" spans="2:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
+    <row r="11" spans="2:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="49"/>
+    </row>
+    <row r="12" spans="2:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="49"/>
       <c r="C12" s="19">
         <v>2.1</v>
       </c>
       <c r="D12" s="12">
         <v>32</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="51">
+        <v>20</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="12">
         <v>35</v>
       </c>
-      <c r="F12" s="13">
+      <c r="H12" s="13">
         <v>16</v>
       </c>
-      <c r="G12" s="14">
+      <c r="I12" s="14">
         <v>1.1499999999999999</v>
       </c>
-      <c r="H12" s="14">
+      <c r="J12" s="14">
         <v>1.4</v>
       </c>
-      <c r="I12" s="15">
+      <c r="K12" s="15">
         <v>540</v>
       </c>
-      <c r="J12" s="16">
+      <c r="L12" s="16">
         <v>40</v>
       </c>
-      <c r="K12" s="17">
+      <c r="M12" s="17">
         <v>10</v>
       </c>
-      <c r="L12" s="23">
+      <c r="N12" s="23">
         <v>0.9</v>
       </c>
-      <c r="M12" s="24">
-        <f>(D12+F12+E12)*G12*H12</f>
+      <c r="O12" s="24">
+        <f>(D12+H12+G12)*I12*J12</f>
         <v>133.62999999999997</v>
       </c>
-      <c r="N12" s="25">
-        <f t="shared" ref="N12:N14" si="8">J12*(1+(K12*0.02))</f>
+      <c r="P12" s="25">
+        <f t="shared" ref="P12:P14" si="7">L12*(1+(M12*0.02))</f>
         <v>48</v>
       </c>
-      <c r="O12" s="22">
-        <f>(T12-MAX($D$2,N12))*L12</f>
+      <c r="Q12" s="22">
+        <f>(V12-MAX($D$2,P12))*N12</f>
         <v>55.800000000000004</v>
       </c>
-      <c r="P12" s="22">
-        <f>I12/O12</f>
+      <c r="R12" s="22">
+        <f>K12/Q12</f>
         <v>9.6774193548387082</v>
       </c>
-      <c r="Q12" s="22">
-        <f>(AB12-MAX($D$2,N12))*L12</f>
+      <c r="S12" s="22">
+        <f>(AD12-MAX($D$2,P12))*N12</f>
         <v>100.8</v>
       </c>
-      <c r="R12" s="22">
-        <f>I12/Q12</f>
+      <c r="T12" s="22">
+        <f>K12/S12</f>
         <v>5.3571428571428577</v>
       </c>
-      <c r="T12" s="12">
+      <c r="V12" s="12">
         <v>110</v>
       </c>
-      <c r="U12" s="15">
+      <c r="W12" s="15">
         <v>720</v>
       </c>
-      <c r="V12" s="16">
+      <c r="X12" s="16">
         <v>20</v>
       </c>
-      <c r="W12" s="17">
-        <v>0</v>
-      </c>
-      <c r="X12" s="17">
-        <f t="shared" ref="X12:X14" si="9">V12*(1+(0.02*W12))</f>
+      <c r="Y12" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="17">
+        <f t="shared" ref="Z12:Z14" si="8">X12*(1+(0.02*Y12))</f>
         <v>20</v>
       </c>
-      <c r="Y12" s="20">
-        <f t="shared" ref="Y12:Y14" si="10">(MAX($M12*$U$1-V12, $R$2)*$U$2)+(MAX($M12*$V$1-V12, $R$2)*$V$2)+(MAX($M12*$W$1-V12, $R$2)*$W$2)</f>
+      <c r="AA12" s="20">
+        <f t="shared" ref="AA12:AA14" si="9">(MAX($O12*$W$1-X12, $T$2)*$W$2)+(MAX($O12*$X$1-X12, $T$2)*$X$2)+(MAX($O12*$Y$1-X12, $T$2)*$Y$2)</f>
         <v>586.50167999999985</v>
       </c>
-      <c r="Z12" s="20">
-        <f t="shared" ref="Z12:Z14" si="11">U12/Y12</f>
+      <c r="AB12" s="20">
+        <f t="shared" ref="AB12:AB14" si="10">W12/AA12</f>
         <v>1.2276179669255169</v>
       </c>
-      <c r="AB12" s="12">
+      <c r="AD12" s="12">
         <v>160</v>
       </c>
-      <c r="AC12" s="33">
+      <c r="AE12" s="33">
         <v>380</v>
       </c>
-      <c r="AD12" s="16">
+      <c r="AF12" s="16">
         <v>10</v>
       </c>
-      <c r="AE12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="17">
-        <f t="shared" ref="AF12:AF14" si="12">AD12*(1+(0.02*AE12))</f>
+      <c r="AG12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="17">
+        <f t="shared" ref="AH12:AH14" si="11">AF12*(1+(0.02*AG12))</f>
         <v>10</v>
       </c>
-      <c r="AG12" s="20">
-        <f t="shared" ref="AG12:AG14" si="13">(MAX($M12*$U$1-AD12, $R$2)*$U$2)+(MAX($M12*$V$1-AD12, $R$2)*$V$2)+(MAX($M12*$W$1-AD12, $R$2)*$W$2)</f>
+      <c r="AI12" s="20">
+        <f t="shared" ref="AI12:AI14" si="12">(MAX($O12*$W$1-AF12, $T$2)*$W$2)+(MAX($O12*$X$1-AF12, $T$2)*$X$2)+(MAX($O12*$Y$1-AF12, $T$2)*$Y$2)</f>
         <v>676.50167999999985</v>
       </c>
-      <c r="AH12" s="20">
-        <f t="shared" ref="AH12:AH14" si="14">AC12/AG12</f>
+      <c r="AJ12" s="20">
+        <f t="shared" ref="AJ12:AJ14" si="13">AE12/AI12</f>
         <v>0.56171331311401929</v>
       </c>
-      <c r="AJ12" s="12">
+      <c r="AL12" s="12">
         <v>90</v>
       </c>
-      <c r="AK12" s="15">
+      <c r="AM12" s="15">
         <v>1400</v>
       </c>
-      <c r="AL12" s="16">
+      <c r="AN12" s="16">
         <v>15</v>
       </c>
-      <c r="AM12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="17">
-        <f t="shared" ref="AN12:AN14" si="15">AL12*(1+(0.02*AM12))</f>
+      <c r="AO12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="17">
+        <f t="shared" ref="AP12:AP14" si="14">AN12*(1+(0.02*AO12))</f>
         <v>15</v>
       </c>
-      <c r="AO12" s="20">
-        <f t="shared" ref="AO12:AO14" si="16">(MAX($M12*$U$1-AL12, $R$2)*$U$2)+(MAX($M12*$V$1-AL12, $R$2)*$V$2)+(MAX($M12*$W$1-AL12, $R$2)*$W$2)</f>
+      <c r="AQ12" s="20">
+        <f t="shared" ref="AQ12:AQ14" si="15">(MAX($O12*$W$1-AN12, $T$2)*$W$2)+(MAX($O12*$X$1-AN12, $T$2)*$X$2)+(MAX($O12*$Y$1-AN12, $T$2)*$Y$2)</f>
         <v>631.50167999999985</v>
       </c>
-      <c r="AP12" s="20">
-        <f t="shared" ref="AP12:AP14" si="17">AK12/AO12</f>
+      <c r="AR12" s="20">
+        <f t="shared" ref="AR12:AR14" si="16">AM12/AQ12</f>
         <v>2.2169378868477443</v>
       </c>
-      <c r="AR12" s="12">
+      <c r="AT12" s="12">
         <v>90</v>
       </c>
-      <c r="AS12" s="15">
+      <c r="AU12" s="15">
         <v>720</v>
       </c>
-      <c r="AT12" s="16">
+      <c r="AV12" s="16">
         <v>60</v>
       </c>
-      <c r="AU12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="17">
-        <f t="shared" ref="AV12:AV14" si="18">AT12*(1+(0.02*AU12))</f>
+      <c r="AW12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="17">
+        <f t="shared" ref="AX12:AX14" si="17">AV12*(1+(0.02*AW12))</f>
         <v>60</v>
       </c>
-      <c r="AW12" s="20">
-        <f t="shared" ref="AW12:AW14" si="19">(MAX($M12*$U$1-AT12, $R$2)*$U$2)+(MAX($M12*$V$1-AT12, $R$2)*$V$2)+(MAX($M12*$W$1-AT12, $R$2)*$W$2)</f>
+      <c r="AY12" s="20">
+        <f t="shared" ref="AY12:AY14" si="18">(MAX($O12*$W$1-AV12, $T$2)*$W$2)+(MAX($O12*$X$1-AV12, $T$2)*$X$2)+(MAX($O12*$Y$1-AV12, $T$2)*$Y$2)</f>
         <v>226.50167999999982</v>
       </c>
-      <c r="AX12" s="20">
-        <f t="shared" ref="AX12:AX14" si="20">AS12/AW12</f>
+      <c r="AZ12" s="20">
+        <f t="shared" ref="AZ12:AZ14" si="19">AU12/AY12</f>
         <v>3.1787843692815017</v>
       </c>
     </row>
-    <row r="13" spans="2:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46">
+    <row r="13" spans="2:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="48">
         <v>3</v>
       </c>
       <c r="C13" s="18">
@@ -3759,306 +3865,318 @@
       <c r="D13" s="12">
         <v>48</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="52">
+        <v>30</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="12">
         <v>50</v>
       </c>
-      <c r="F13" s="13">
+      <c r="H13" s="13">
         <v>22</v>
       </c>
-      <c r="G13" s="14">
+      <c r="I13" s="14">
         <v>1.2250000000000001</v>
       </c>
-      <c r="H13" s="14">
+      <c r="J13" s="14">
         <v>1.5</v>
       </c>
-      <c r="I13" s="15">
+      <c r="K13" s="15">
         <v>740</v>
       </c>
-      <c r="J13" s="16">
+      <c r="L13" s="16">
         <v>60</v>
       </c>
-      <c r="K13" s="17">
+      <c r="M13" s="17">
         <v>14</v>
       </c>
-      <c r="L13" s="23">
+      <c r="N13" s="23">
         <v>0.85</v>
       </c>
-      <c r="M13" s="24">
-        <f>(D13+F13+E13)*G13*H13</f>
+      <c r="O13" s="24">
+        <f>(D13+H13+G13)*I13*J13</f>
         <v>220.5</v>
       </c>
-      <c r="N13" s="25">
+      <c r="P13" s="25">
+        <f t="shared" si="7"/>
+        <v>76.8</v>
+      </c>
+      <c r="Q13" s="22">
+        <f>(V13-MAX($D$2,P13))*N13</f>
+        <v>74.97</v>
+      </c>
+      <c r="R13" s="22">
+        <f>K13/Q13</f>
+        <v>9.8706149126317193</v>
+      </c>
+      <c r="S13" s="22">
+        <f>(AD13-MAX($D$2,P13))*N13</f>
+        <v>138.72</v>
+      </c>
+      <c r="T13" s="22">
+        <f>K13/S13</f>
+        <v>5.3344867358708186</v>
+      </c>
+      <c r="V13" s="12">
+        <v>165</v>
+      </c>
+      <c r="W13" s="15">
+        <v>1250</v>
+      </c>
+      <c r="X13" s="16">
+        <v>30</v>
+      </c>
+      <c r="Y13" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="17">
         <f t="shared" si="8"/>
-        <v>76.8</v>
-      </c>
-      <c r="O13" s="22">
-        <f>(T13-MAX($D$2,N13))*L13</f>
-        <v>74.97</v>
-      </c>
-      <c r="P13" s="22">
-        <f>I13/O13</f>
-        <v>9.8706149126317193</v>
-      </c>
-      <c r="Q13" s="22">
-        <f>(AB13-MAX($D$2,N13))*L13</f>
-        <v>138.72</v>
-      </c>
-      <c r="R13" s="22">
-        <f>I13/Q13</f>
-        <v>5.3344867358708186</v>
-      </c>
-      <c r="T13" s="12">
-        <v>165</v>
-      </c>
-      <c r="U13" s="15">
+        <v>30</v>
+      </c>
+      <c r="AA13" s="20">
+        <f t="shared" si="9"/>
+        <v>994.7879999999999</v>
+      </c>
+      <c r="AB13" s="20">
+        <f t="shared" si="10"/>
+        <v>1.2565491340868609</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>240</v>
+      </c>
+      <c r="AE13" s="15">
+        <v>650</v>
+      </c>
+      <c r="AF13" s="16">
+        <v>15</v>
+      </c>
+      <c r="AG13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="17">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="AI13" s="20">
+        <f t="shared" si="12"/>
+        <v>1129.788</v>
+      </c>
+      <c r="AJ13" s="20">
+        <f t="shared" si="13"/>
+        <v>0.57532917680131135</v>
+      </c>
+      <c r="AL13" s="12">
+        <v>140</v>
+      </c>
+      <c r="AM13" s="15">
+        <v>2400</v>
+      </c>
+      <c r="AN13" s="16">
+        <v>20</v>
+      </c>
+      <c r="AO13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="17">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="AQ13" s="20">
+        <f t="shared" si="15"/>
+        <v>1084.788</v>
+      </c>
+      <c r="AR13" s="20">
+        <f t="shared" si="16"/>
+        <v>2.2124138541355545</v>
+      </c>
+      <c r="AT13" s="12">
+        <v>140</v>
+      </c>
+      <c r="AU13" s="15">
         <v>1250</v>
       </c>
-      <c r="V13" s="16">
-        <v>30</v>
-      </c>
-      <c r="W13" s="17">
-        <v>0</v>
-      </c>
-      <c r="X13" s="17">
-        <f t="shared" si="9"/>
-        <v>30</v>
-      </c>
-      <c r="Y13" s="20">
-        <f t="shared" si="10"/>
-        <v>994.7879999999999</v>
-      </c>
-      <c r="Z13" s="20">
-        <f t="shared" si="11"/>
-        <v>1.2565491340868609</v>
-      </c>
-      <c r="AB13" s="12">
-        <v>240</v>
-      </c>
-      <c r="AC13" s="15">
-        <v>650</v>
-      </c>
-      <c r="AD13" s="16">
-        <v>15</v>
-      </c>
-      <c r="AE13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="17">
-        <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
-      <c r="AG13" s="20">
-        <f t="shared" si="13"/>
-        <v>1129.788</v>
-      </c>
-      <c r="AH13" s="20">
-        <f t="shared" si="14"/>
-        <v>0.57532917680131135</v>
-      </c>
-      <c r="AJ13" s="12">
-        <v>140</v>
-      </c>
-      <c r="AK13" s="15">
-        <v>2400</v>
-      </c>
-      <c r="AL13" s="16">
-        <v>20</v>
-      </c>
-      <c r="AM13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="17">
-        <f t="shared" si="15"/>
-        <v>20</v>
-      </c>
-      <c r="AO13" s="20">
-        <f t="shared" si="16"/>
-        <v>1084.788</v>
-      </c>
-      <c r="AP13" s="20">
+      <c r="AV13" s="16">
+        <v>100</v>
+      </c>
+      <c r="AW13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="17">
         <f t="shared" si="17"/>
-        <v>2.2124138541355545</v>
-      </c>
-      <c r="AR13" s="12">
-        <v>140</v>
-      </c>
-      <c r="AS13" s="15">
-        <v>1250</v>
-      </c>
-      <c r="AT13" s="16">
         <v>100</v>
       </c>
-      <c r="AU13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="17">
+      <c r="AY13" s="20">
         <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-      <c r="AW13" s="20">
+        <v>364.7879999999999</v>
+      </c>
+      <c r="AZ13" s="20">
         <f t="shared" si="19"/>
-        <v>364.7879999999999</v>
-      </c>
-      <c r="AX13" s="20">
-        <f t="shared" si="20"/>
         <v>3.4266478063971411</v>
       </c>
     </row>
-    <row r="14" spans="2:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="46"/>
+    <row r="14" spans="2:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="48"/>
       <c r="C14" s="19">
         <v>2.2999999999999998</v>
       </c>
       <c r="D14" s="12">
         <v>64</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="52">
+        <v>50</v>
+      </c>
+      <c r="F14" s="51">
+        <v>25</v>
+      </c>
+      <c r="G14" s="12">
         <v>75</v>
       </c>
-      <c r="F14" s="13">
+      <c r="H14" s="13">
         <v>28</v>
       </c>
-      <c r="G14" s="14">
+      <c r="I14" s="14">
         <v>1.3</v>
       </c>
-      <c r="H14" s="14">
+      <c r="J14" s="14">
         <v>1.65</v>
       </c>
-      <c r="I14" s="15">
+      <c r="K14" s="15">
         <v>1000</v>
       </c>
-      <c r="J14" s="16">
+      <c r="L14" s="16">
         <v>80</v>
       </c>
-      <c r="K14" s="17">
+      <c r="M14" s="17">
         <v>18</v>
       </c>
-      <c r="L14" s="23">
+      <c r="N14" s="23">
         <v>0.85</v>
       </c>
-      <c r="M14" s="24">
-        <f t="shared" ref="M14" si="21">(D14+F14+E14)*G14*H14</f>
+      <c r="O14" s="24">
+        <f>(D14+H14+G14)*I14*J14</f>
         <v>358.21499999999997</v>
       </c>
-      <c r="N14" s="25">
+      <c r="P14" s="25">
+        <f t="shared" si="7"/>
+        <v>108.79999999999998</v>
+      </c>
+      <c r="Q14" s="22">
+        <f>(V14-MAX($D$2,P14))*N14</f>
+        <v>103.02000000000001</v>
+      </c>
+      <c r="R14" s="22">
+        <f>K14/Q14</f>
+        <v>9.7068530382450007</v>
+      </c>
+      <c r="S14" s="22">
+        <f>(AD14-MAX($D$2,P14))*N14</f>
+        <v>188.02</v>
+      </c>
+      <c r="T14" s="22">
+        <f>K14/S14</f>
+        <v>5.3185831294543133</v>
+      </c>
+      <c r="V14" s="12">
+        <v>230</v>
+      </c>
+      <c r="W14" s="15">
+        <v>2200</v>
+      </c>
+      <c r="X14" s="16">
+        <v>40</v>
+      </c>
+      <c r="Y14" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="17">
         <f t="shared" si="8"/>
-        <v>108.79999999999998</v>
-      </c>
-      <c r="O14" s="22">
-        <f>(T14-MAX($D$2,N14))*L14</f>
-        <v>103.02000000000001</v>
-      </c>
-      <c r="P14" s="22">
-        <f>I14/O14</f>
-        <v>9.7068530382450007</v>
-      </c>
-      <c r="Q14" s="22">
-        <f>(AB14-MAX($D$2,N14))*L14</f>
-        <v>188.02</v>
-      </c>
-      <c r="R14" s="22">
-        <f>I14/Q14</f>
-        <v>5.3185831294543133</v>
-      </c>
-      <c r="T14" s="12">
-        <v>230</v>
-      </c>
-      <c r="U14" s="15">
+        <v>40</v>
+      </c>
+      <c r="AA14" s="20">
+        <f t="shared" si="9"/>
+        <v>1694.7212399999996</v>
+      </c>
+      <c r="AB14" s="20">
+        <f t="shared" si="10"/>
+        <v>1.2981485969928603</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>330</v>
+      </c>
+      <c r="AE14" s="15">
+        <v>1100</v>
+      </c>
+      <c r="AF14" s="16">
+        <v>20</v>
+      </c>
+      <c r="AG14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="17">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="AI14" s="20">
+        <f t="shared" si="12"/>
+        <v>1874.7212399999996</v>
+      </c>
+      <c r="AJ14" s="20">
+        <f t="shared" si="13"/>
+        <v>0.58675390054256826</v>
+      </c>
+      <c r="AL14" s="12">
+        <v>190</v>
+      </c>
+      <c r="AM14" s="15">
+        <v>4000</v>
+      </c>
+      <c r="AN14" s="16">
+        <v>30</v>
+      </c>
+      <c r="AO14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="17">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="AQ14" s="20">
+        <f t="shared" si="15"/>
+        <v>1784.7212399999996</v>
+      </c>
+      <c r="AR14" s="20">
+        <f t="shared" si="16"/>
+        <v>2.2412463696571465</v>
+      </c>
+      <c r="AT14" s="12">
+        <v>190</v>
+      </c>
+      <c r="AU14" s="15">
         <v>2200</v>
       </c>
-      <c r="V14" s="16">
-        <v>40</v>
-      </c>
-      <c r="W14" s="17">
-        <v>0</v>
-      </c>
-      <c r="X14" s="17">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="Y14" s="20">
-        <f t="shared" si="10"/>
-        <v>1694.7212399999996</v>
-      </c>
-      <c r="Z14" s="20">
-        <f t="shared" si="11"/>
-        <v>1.2981485969928603</v>
-      </c>
-      <c r="AB14" s="12">
-        <v>330</v>
-      </c>
-      <c r="AC14" s="15">
-        <v>1100</v>
-      </c>
-      <c r="AD14" s="16">
-        <v>20</v>
-      </c>
-      <c r="AE14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="17">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="AG14" s="20">
-        <f t="shared" si="13"/>
-        <v>1874.7212399999996</v>
-      </c>
-      <c r="AH14" s="20">
-        <f t="shared" si="14"/>
-        <v>0.58675390054256826</v>
-      </c>
-      <c r="AJ14" s="12">
-        <v>190</v>
-      </c>
-      <c r="AK14" s="15">
-        <v>4000</v>
-      </c>
-      <c r="AL14" s="16">
-        <v>30</v>
-      </c>
-      <c r="AM14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="17">
-        <f t="shared" si="15"/>
-        <v>30</v>
-      </c>
-      <c r="AO14" s="20">
-        <f t="shared" si="16"/>
-        <v>1784.7212399999996</v>
-      </c>
-      <c r="AP14" s="20">
+      <c r="AV14" s="16">
+        <v>160</v>
+      </c>
+      <c r="AW14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="17">
         <f t="shared" si="17"/>
-        <v>2.2412463696571465</v>
-      </c>
-      <c r="AR14" s="12">
-        <v>190</v>
-      </c>
-      <c r="AS14" s="15">
-        <v>2200</v>
-      </c>
-      <c r="AT14" s="16">
         <v>160</v>
       </c>
-      <c r="AU14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AV14" s="17">
+      <c r="AY14" s="20">
         <f t="shared" si="18"/>
-        <v>160</v>
-      </c>
-      <c r="AW14" s="20">
+        <v>614.72123999999985</v>
+      </c>
+      <c r="AZ14" s="20">
         <f t="shared" si="19"/>
-        <v>614.72123999999985</v>
-      </c>
-      <c r="AX14" s="20">
-        <f t="shared" si="20"/>
         <v>3.5788579551928295</v>
       </c>
     </row>
-    <row r="16" spans="2:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="46">
+    <row r="16" spans="2:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="48">
         <v>4</v>
       </c>
       <c r="C16" s="19">
@@ -4067,459 +4185,477 @@
       <c r="D16" s="12">
         <v>80</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="51">
+        <v>60</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="12">
         <v>100</v>
       </c>
-      <c r="F16" s="13">
+      <c r="H16" s="13">
         <v>36</v>
       </c>
-      <c r="G16" s="14">
+      <c r="I16" s="14">
         <v>1.4</v>
       </c>
-      <c r="H16" s="14">
+      <c r="J16" s="14">
         <v>1.8</v>
       </c>
-      <c r="I16" s="15">
+      <c r="K16" s="15">
         <v>1300</v>
       </c>
-      <c r="J16" s="16">
+      <c r="L16" s="16">
         <v>110</v>
       </c>
-      <c r="K16" s="17">
+      <c r="M16" s="17">
         <v>26</v>
       </c>
-      <c r="L16" s="23">
+      <c r="N16" s="23">
         <v>0.8</v>
       </c>
-      <c r="M16" s="24">
-        <f t="shared" ref="M16:M18" si="22">(D16+F16+E16)*G16*H16</f>
+      <c r="O16" s="24">
+        <f>(D16+H16+G16)*I16*J16</f>
         <v>544.31999999999994</v>
       </c>
-      <c r="N16" s="25">
-        <f t="shared" ref="N16:N18" si="23">J16*(1+(K16*0.02))</f>
+      <c r="P16" s="25">
+        <f t="shared" ref="P16:P18" si="20">L16*(1+(M16*0.02))</f>
         <v>167.2</v>
       </c>
-      <c r="O16" s="22">
-        <f>(T16-MAX($D$2,N16))*L16</f>
+      <c r="Q16" s="22">
+        <f>(V16-MAX($D$2,P16))*N16</f>
         <v>146.24</v>
       </c>
-      <c r="P16" s="22">
-        <f>I16/O16</f>
+      <c r="R16" s="22">
+        <f>K16/Q16</f>
         <v>8.8894967177242883</v>
       </c>
-      <c r="Q16" s="22">
-        <f>(AB16-MAX($D$2,N16))*L16</f>
+      <c r="S16" s="22">
+        <f>(AD16-MAX($D$2,P16))*N16</f>
         <v>266.24</v>
       </c>
-      <c r="R16" s="22">
-        <f>I16/Q16</f>
+      <c r="T16" s="22">
+        <f>K16/S16</f>
         <v>4.8828125</v>
       </c>
-      <c r="T16" s="12">
+      <c r="V16" s="12">
         <v>350</v>
       </c>
-      <c r="U16" s="15">
+      <c r="W16" s="15">
         <v>3400</v>
       </c>
-      <c r="V16" s="16">
+      <c r="X16" s="16">
         <v>55</v>
       </c>
-      <c r="W16" s="17">
-        <v>0</v>
-      </c>
-      <c r="X16" s="17">
-        <f t="shared" ref="X16:X18" si="24">V16*(1+(0.02*W16))</f>
+      <c r="Y16" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="17">
+        <f t="shared" ref="Z16:Z18" si="21">X16*(1+(0.02*Y16))</f>
         <v>55</v>
       </c>
-      <c r="Y16" s="20">
-        <f t="shared" ref="Y16:Y18" si="25">(MAX($M16*$U$1-V16, $R$2)*$U$2)+(MAX($M16*$V$1-V16, $R$2)*$V$2)+(MAX($M16*$W$1-V16, $R$2)*$W$2)</f>
+      <c r="AA16" s="20">
+        <f t="shared" ref="AA16:AA18" si="22">(MAX($O16*$W$1-X16, $T$2)*$W$2)+(MAX($O16*$X$1-X16, $T$2)*$X$2)+(MAX($O16*$Y$1-X16, $T$2)*$Y$2)</f>
         <v>2627.2195199999996</v>
       </c>
-      <c r="Z16" s="20">
-        <f t="shared" ref="Z16:Z18" si="26">U16/Y16</f>
+      <c r="AB16" s="20">
+        <f t="shared" ref="AB16:AB18" si="23">W16/AA16</f>
         <v>1.29414385593481</v>
       </c>
-      <c r="AB16" s="12">
+      <c r="AD16" s="12">
         <v>500</v>
       </c>
-      <c r="AC16" s="15">
+      <c r="AE16" s="15">
         <v>1700</v>
       </c>
-      <c r="AD16" s="16">
+      <c r="AF16" s="16">
         <v>30</v>
       </c>
-      <c r="AE16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="17">
-        <f t="shared" ref="AF16:AF18" si="27">AD16*(1+(0.02*AE16))</f>
+      <c r="AG16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="17">
+        <f t="shared" ref="AH16:AH18" si="24">AF16*(1+(0.02*AG16))</f>
         <v>30</v>
       </c>
-      <c r="AG16" s="20">
-        <f t="shared" ref="AG16:AG18" si="28">(MAX($M16*$U$1-AD16, $R$2)*$U$2)+(MAX($M16*$V$1-AD16, $R$2)*$V$2)+(MAX($M16*$W$1-AD16, $R$2)*$W$2)</f>
+      <c r="AI16" s="20">
+        <f t="shared" ref="AI16:AI18" si="25">(MAX($O16*$W$1-AF16, $T$2)*$W$2)+(MAX($O16*$X$1-AF16, $T$2)*$X$2)+(MAX($O16*$Y$1-AF16, $T$2)*$Y$2)</f>
         <v>2852.2195199999996</v>
       </c>
-      <c r="AH16" s="20">
-        <f t="shared" ref="AH16:AH18" si="29">AC16/AG16</f>
+      <c r="AJ16" s="20">
+        <f t="shared" ref="AJ16:AJ18" si="26">AE16/AI16</f>
         <v>0.59602705474787587</v>
       </c>
-      <c r="AJ16" s="12">
+      <c r="AL16" s="12">
         <v>290</v>
       </c>
-      <c r="AK16" s="15">
+      <c r="AM16" s="15">
         <v>6400</v>
       </c>
-      <c r="AL16" s="16">
+      <c r="AN16" s="16">
         <v>40</v>
       </c>
-      <c r="AM16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="17">
-        <f t="shared" ref="AN16:AN18" si="30">AL16*(1+(0.02*AM16))</f>
+      <c r="AO16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="17">
+        <f t="shared" ref="AP16:AP18" si="27">AN16*(1+(0.02*AO16))</f>
         <v>40</v>
       </c>
-      <c r="AO16" s="20">
-        <f t="shared" ref="AO16:AO18" si="31">(MAX($M16*$U$1-AL16, $R$2)*$U$2)+(MAX($M16*$V$1-AL16, $R$2)*$V$2)+(MAX($M16*$W$1-AL16, $R$2)*$W$2)</f>
+      <c r="AQ16" s="20">
+        <f t="shared" ref="AQ16:AQ18" si="28">(MAX($O16*$W$1-AN16, $T$2)*$W$2)+(MAX($O16*$X$1-AN16, $T$2)*$X$2)+(MAX($O16*$Y$1-AN16, $T$2)*$Y$2)</f>
         <v>2762.2195199999996</v>
       </c>
-      <c r="AP16" s="20">
-        <f t="shared" ref="AP16:AP18" si="32">AK16/AO16</f>
+      <c r="AR16" s="20">
+        <f t="shared" ref="AR16:AR18" si="29">AM16/AQ16</f>
         <v>2.3169773269866694</v>
       </c>
-      <c r="AR16" s="12">
+      <c r="AT16" s="12">
         <v>290</v>
       </c>
-      <c r="AS16" s="15">
+      <c r="AU16" s="15">
         <v>3400</v>
       </c>
-      <c r="AT16" s="16">
+      <c r="AV16" s="16">
         <v>240</v>
       </c>
-      <c r="AU16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="17">
-        <f t="shared" ref="AV16:AV18" si="33">AT16*(1+(0.02*AU16))</f>
+      <c r="AW16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="17">
+        <f t="shared" ref="AX16:AX18" si="30">AV16*(1+(0.02*AW16))</f>
         <v>240</v>
       </c>
-      <c r="AW16" s="20">
-        <f t="shared" ref="AW16:AW18" si="34">(MAX($M16*$U$1-AT16, $R$2)*$U$2)+(MAX($M16*$V$1-AT16, $R$2)*$V$2)+(MAX($M16*$W$1-AT16, $R$2)*$W$2)</f>
+      <c r="AY16" s="20">
+        <f t="shared" ref="AY16:AY18" si="31">(MAX($O16*$W$1-AV16, $T$2)*$W$2)+(MAX($O16*$X$1-AV16, $T$2)*$X$2)+(MAX($O16*$Y$1-AV16, $T$2)*$Y$2)</f>
         <v>962.21951999999965</v>
       </c>
-      <c r="AX16" s="20">
-        <f t="shared" ref="AX16:AX18" si="35">AS16/AW16</f>
+      <c r="AZ16" s="20">
+        <f t="shared" ref="AZ16:AZ18" si="32">AU16/AY16</f>
         <v>3.5334972210915043</v>
       </c>
     </row>
-    <row r="17" spans="2:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="46"/>
+    <row r="17" spans="2:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="48"/>
       <c r="C17" s="18">
         <v>3.2</v>
       </c>
       <c r="D17" s="12">
         <v>120</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="52">
+        <v>65</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="12">
         <v>110</v>
       </c>
-      <c r="F17" s="13">
+      <c r="H17" s="13">
         <v>44</v>
       </c>
-      <c r="G17" s="14">
+      <c r="I17" s="14">
         <v>1.5</v>
       </c>
-      <c r="H17" s="14">
+      <c r="J17" s="14">
         <v>1.95</v>
       </c>
-      <c r="I17" s="15">
+      <c r="K17" s="15">
         <v>1600</v>
       </c>
-      <c r="J17" s="16">
+      <c r="L17" s="16">
         <v>140</v>
       </c>
-      <c r="K17" s="17">
+      <c r="M17" s="17">
         <v>34</v>
       </c>
-      <c r="L17" s="23">
+      <c r="N17" s="23">
         <v>0.8</v>
       </c>
-      <c r="M17" s="24">
+      <c r="O17" s="24">
+        <f>(D17+H17+G17)*I17*J17</f>
+        <v>801.44999999999993</v>
+      </c>
+      <c r="P17" s="25">
+        <f t="shared" si="20"/>
+        <v>235.20000000000002</v>
+      </c>
+      <c r="Q17" s="22">
+        <f>(V17-MAX($D$2,P17))*N17</f>
+        <v>179.84</v>
+      </c>
+      <c r="R17" s="22">
+        <f>K17/Q17</f>
+        <v>8.8967971530249113</v>
+      </c>
+      <c r="S17" s="22">
+        <f>(AD17-MAX($D$2,P17))*N17</f>
+        <v>331.84</v>
+      </c>
+      <c r="T17" s="22">
+        <f>K17/S17</f>
+        <v>4.821600771456124</v>
+      </c>
+      <c r="V17" s="12">
+        <v>460</v>
+      </c>
+      <c r="W17" s="15">
+        <v>5200</v>
+      </c>
+      <c r="X17" s="16">
+        <v>70</v>
+      </c>
+      <c r="Y17" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="17">
+        <f t="shared" si="21"/>
+        <v>70</v>
+      </c>
+      <c r="AA17" s="20">
         <f t="shared" si="22"/>
-        <v>801.44999999999993</v>
-      </c>
-      <c r="N17" s="25">
+        <v>3967.1171999999992</v>
+      </c>
+      <c r="AB17" s="20">
         <f t="shared" si="23"/>
-        <v>235.20000000000002</v>
-      </c>
-      <c r="O17" s="22">
-        <f>(T17-MAX($D$2,N17))*L17</f>
-        <v>179.84</v>
-      </c>
-      <c r="P17" s="22">
-        <f>I17/O17</f>
-        <v>8.8967971530249113</v>
-      </c>
-      <c r="Q17" s="22">
-        <f>(AB17-MAX($D$2,N17))*L17</f>
-        <v>331.84</v>
-      </c>
-      <c r="R17" s="22">
-        <f>I17/Q17</f>
-        <v>4.821600771456124</v>
-      </c>
-      <c r="T17" s="12">
-        <v>460</v>
-      </c>
-      <c r="U17" s="15">
+        <v>1.3107754920878065</v>
+      </c>
+      <c r="AD17" s="12">
+        <v>650</v>
+      </c>
+      <c r="AE17" s="15">
+        <v>2500</v>
+      </c>
+      <c r="AF17" s="16">
+        <v>40</v>
+      </c>
+      <c r="AG17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="17">
+        <f t="shared" si="24"/>
+        <v>40</v>
+      </c>
+      <c r="AI17" s="20">
+        <f t="shared" si="25"/>
+        <v>4237.1171999999997</v>
+      </c>
+      <c r="AJ17" s="20">
+        <f t="shared" si="26"/>
+        <v>0.59002380203219307</v>
+      </c>
+      <c r="AL17" s="12">
+        <v>380</v>
+      </c>
+      <c r="AM17" s="15">
+        <v>10000</v>
+      </c>
+      <c r="AN17" s="16">
+        <v>55</v>
+      </c>
+      <c r="AO17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="17">
+        <f t="shared" si="27"/>
+        <v>55</v>
+      </c>
+      <c r="AQ17" s="20">
+        <f t="shared" si="28"/>
+        <v>4102.1171999999997</v>
+      </c>
+      <c r="AR17" s="20">
+        <f t="shared" si="29"/>
+        <v>2.437765551895982</v>
+      </c>
+      <c r="AT17" s="12">
+        <v>380</v>
+      </c>
+      <c r="AU17" s="15">
         <v>5200</v>
       </c>
-      <c r="V17" s="16">
-        <v>70</v>
-      </c>
-      <c r="W17" s="17">
-        <v>0</v>
-      </c>
-      <c r="X17" s="17">
-        <f t="shared" si="24"/>
-        <v>70</v>
-      </c>
-      <c r="Y17" s="20">
-        <f t="shared" si="25"/>
-        <v>3967.1171999999992</v>
-      </c>
-      <c r="Z17" s="20">
-        <f t="shared" si="26"/>
-        <v>1.3107754920878065</v>
-      </c>
-      <c r="AB17" s="12">
-        <v>650</v>
-      </c>
-      <c r="AC17" s="15">
-        <v>2500</v>
-      </c>
-      <c r="AD17" s="16">
-        <v>40</v>
-      </c>
-      <c r="AE17" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="17">
-        <f t="shared" si="27"/>
-        <v>40</v>
-      </c>
-      <c r="AG17" s="20">
-        <f t="shared" si="28"/>
-        <v>4237.1171999999997</v>
-      </c>
-      <c r="AH17" s="20">
-        <f t="shared" si="29"/>
-        <v>0.59002380203219307</v>
-      </c>
-      <c r="AJ17" s="12">
-        <v>380</v>
-      </c>
-      <c r="AK17" s="15">
-        <v>10000</v>
-      </c>
-      <c r="AL17" s="16">
-        <v>55</v>
-      </c>
-      <c r="AM17" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="17">
+      <c r="AV17" s="16">
+        <v>350</v>
+      </c>
+      <c r="AW17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="17">
         <f t="shared" si="30"/>
-        <v>55</v>
-      </c>
-      <c r="AO17" s="20">
+        <v>350</v>
+      </c>
+      <c r="AY17" s="20">
         <f t="shared" si="31"/>
-        <v>4102.1171999999997</v>
-      </c>
-      <c r="AP17" s="20">
+        <v>1447.1171999999992</v>
+      </c>
+      <c r="AZ17" s="20">
         <f t="shared" si="32"/>
-        <v>2.437765551895982</v>
-      </c>
-      <c r="AR17" s="12">
-        <v>380</v>
-      </c>
-      <c r="AS17" s="15">
-        <v>5200</v>
-      </c>
-      <c r="AT17" s="16">
-        <v>350</v>
-      </c>
-      <c r="AU17" s="17">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="17">
-        <f t="shared" si="33"/>
-        <v>350</v>
-      </c>
-      <c r="AW17" s="20">
-        <f t="shared" si="34"/>
-        <v>1447.1171999999992</v>
-      </c>
-      <c r="AX17" s="20">
-        <f t="shared" si="35"/>
         <v>3.5933509739225009</v>
       </c>
     </row>
-    <row r="18" spans="2:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46"/>
+    <row r="18" spans="2:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
       <c r="C18" s="19">
         <v>3.3</v>
       </c>
       <c r="D18" s="12">
         <v>160</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="52">
+        <v>70</v>
+      </c>
+      <c r="F18" s="52">
+        <v>50</v>
+      </c>
+      <c r="G18" s="12">
         <v>120</v>
       </c>
-      <c r="F18" s="13">
+      <c r="H18" s="13">
         <v>52</v>
       </c>
-      <c r="G18" s="14">
+      <c r="I18" s="14">
         <v>1.6</v>
       </c>
-      <c r="H18" s="14">
+      <c r="J18" s="14">
         <v>2.1</v>
       </c>
-      <c r="I18" s="15">
+      <c r="K18" s="15">
         <v>1900</v>
       </c>
-      <c r="J18" s="16">
+      <c r="L18" s="16">
         <v>170</v>
       </c>
-      <c r="K18" s="17">
+      <c r="M18" s="17">
         <v>42</v>
       </c>
-      <c r="L18" s="23">
+      <c r="N18" s="23">
         <v>0.7</v>
       </c>
-      <c r="M18" s="24">
+      <c r="O18" s="24">
+        <f>(D18+H18+G18)*I18*J18</f>
+        <v>1115.5200000000002</v>
+      </c>
+      <c r="P18" s="25">
+        <f t="shared" si="20"/>
+        <v>312.79999999999995</v>
+      </c>
+      <c r="Q18" s="22">
+        <f>(V18-MAX($D$2,P18))*N18</f>
+        <v>215.04000000000002</v>
+      </c>
+      <c r="R18" s="22">
+        <f>K18/Q18</f>
+        <v>8.8355654761904745</v>
+      </c>
+      <c r="S18" s="22">
+        <f>(AD18-MAX($D$2,P18))*N18</f>
+        <v>411.04</v>
+      </c>
+      <c r="T18" s="22">
+        <f>K18/S18</f>
+        <v>4.62242117555469</v>
+      </c>
+      <c r="V18" s="12">
+        <v>620</v>
+      </c>
+      <c r="W18" s="15">
+        <v>7400</v>
+      </c>
+      <c r="X18" s="16">
+        <v>85</v>
+      </c>
+      <c r="Y18" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="17">
+        <f t="shared" si="21"/>
+        <v>85</v>
+      </c>
+      <c r="AA18" s="20">
         <f t="shared" si="22"/>
-        <v>1115.5200000000002</v>
-      </c>
-      <c r="N18" s="25">
+        <v>5633.6227200000012</v>
+      </c>
+      <c r="AB18" s="20">
         <f t="shared" si="23"/>
-        <v>312.79999999999995</v>
-      </c>
-      <c r="O18" s="22">
-        <f>(T18-MAX($D$2,N18))*L18</f>
-        <v>215.04000000000002</v>
-      </c>
-      <c r="P18" s="22">
-        <f>I18/O18</f>
-        <v>8.8355654761904745</v>
-      </c>
-      <c r="Q18" s="22">
-        <f>(AB18-MAX($D$2,N18))*L18</f>
-        <v>411.04</v>
-      </c>
-      <c r="R18" s="22">
-        <f>I18/Q18</f>
-        <v>4.62242117555469</v>
-      </c>
-      <c r="T18" s="12">
-        <v>620</v>
-      </c>
-      <c r="U18" s="15">
+        <v>1.3135419902595107</v>
+      </c>
+      <c r="AD18" s="12">
+        <v>900</v>
+      </c>
+      <c r="AE18" s="15">
+        <v>3600</v>
+      </c>
+      <c r="AF18" s="16">
+        <v>50</v>
+      </c>
+      <c r="AG18" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="17">
+        <f t="shared" si="24"/>
+        <v>50</v>
+      </c>
+      <c r="AI18" s="20">
+        <f t="shared" si="25"/>
+        <v>5948.6227200000012</v>
+      </c>
+      <c r="AJ18" s="20">
+        <f t="shared" si="26"/>
+        <v>0.60518210171513431</v>
+      </c>
+      <c r="AL18" s="12">
+        <v>520</v>
+      </c>
+      <c r="AM18" s="15">
+        <v>14000</v>
+      </c>
+      <c r="AN18" s="16">
+        <v>70</v>
+      </c>
+      <c r="AO18" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="17">
+        <f t="shared" si="27"/>
+        <v>70</v>
+      </c>
+      <c r="AQ18" s="20">
+        <f t="shared" si="28"/>
+        <v>5768.6227200000012</v>
+      </c>
+      <c r="AR18" s="20">
+        <f t="shared" si="29"/>
+        <v>2.426922452643947</v>
+      </c>
+      <c r="AT18" s="12">
+        <v>520</v>
+      </c>
+      <c r="AU18" s="15">
         <v>7400</v>
       </c>
-      <c r="V18" s="16">
-        <v>85</v>
-      </c>
-      <c r="W18" s="17">
-        <v>0</v>
-      </c>
-      <c r="X18" s="17">
-        <f t="shared" si="24"/>
-        <v>85</v>
-      </c>
-      <c r="Y18" s="20">
-        <f t="shared" si="25"/>
-        <v>5633.6227200000012</v>
-      </c>
-      <c r="Z18" s="20">
-        <f t="shared" si="26"/>
-        <v>1.3135419902595107</v>
-      </c>
-      <c r="AB18" s="12">
-        <v>900</v>
-      </c>
-      <c r="AC18" s="15">
-        <v>3600</v>
-      </c>
-      <c r="AD18" s="16">
-        <v>50</v>
-      </c>
-      <c r="AE18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="17">
-        <f t="shared" si="27"/>
-        <v>50</v>
-      </c>
-      <c r="AG18" s="20">
-        <f t="shared" si="28"/>
-        <v>5948.6227200000012</v>
-      </c>
-      <c r="AH18" s="20">
-        <f t="shared" si="29"/>
-        <v>0.60518210171513431</v>
-      </c>
-      <c r="AJ18" s="12">
-        <v>520</v>
-      </c>
-      <c r="AK18" s="15">
-        <v>14000</v>
-      </c>
-      <c r="AL18" s="16">
-        <v>70</v>
-      </c>
-      <c r="AM18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="17">
+      <c r="AV18" s="16">
+        <v>480</v>
+      </c>
+      <c r="AW18" s="17">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="17">
         <f t="shared" si="30"/>
-        <v>70</v>
-      </c>
-      <c r="AO18" s="20">
+        <v>480</v>
+      </c>
+      <c r="AY18" s="20">
         <f t="shared" si="31"/>
-        <v>5768.6227200000012</v>
-      </c>
-      <c r="AP18" s="20">
+        <v>2078.6227200000012</v>
+      </c>
+      <c r="AZ18" s="20">
         <f t="shared" si="32"/>
-        <v>2.426922452643947</v>
-      </c>
-      <c r="AR18" s="12">
-        <v>520</v>
-      </c>
-      <c r="AS18" s="15">
-        <v>7400</v>
-      </c>
-      <c r="AT18" s="16">
-        <v>480</v>
-      </c>
-      <c r="AU18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="17">
-        <f t="shared" si="33"/>
-        <v>480</v>
-      </c>
-      <c r="AW18" s="20">
-        <f t="shared" si="34"/>
-        <v>2078.6227200000012</v>
-      </c>
-      <c r="AX18" s="20">
-        <f t="shared" si="35"/>
         <v>3.5600496082328954</v>
       </c>
     </row>
-    <row r="20" spans="2:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="46">
+    <row r="20" spans="2:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="48">
         <v>5</v>
       </c>
       <c r="C20" s="18">
@@ -4528,318 +4664,330 @@
       <c r="D20" s="12">
         <v>240</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="51">
+        <v>100</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="12">
         <v>220</v>
       </c>
-      <c r="F20" s="13">
+      <c r="H20" s="13">
         <v>62</v>
       </c>
-      <c r="G20" s="14">
+      <c r="I20" s="14">
         <v>1.625</v>
       </c>
-      <c r="H20" s="14">
+      <c r="J20" s="14">
         <v>2.25</v>
       </c>
-      <c r="I20" s="15">
+      <c r="K20" s="15">
         <v>2020</v>
       </c>
-      <c r="J20" s="16">
+      <c r="L20" s="16">
         <v>210</v>
       </c>
-      <c r="K20" s="17">
+      <c r="M20" s="17">
         <v>52</v>
       </c>
-      <c r="L20" s="23">
+      <c r="N20" s="23">
         <v>0.65</v>
       </c>
-      <c r="M20" s="24">
-        <f t="shared" ref="M20:M21" si="36">(D20+F20+E20)*G20*H20</f>
+      <c r="O20" s="24">
+        <f>(D20+H20+G20)*I20*J20</f>
         <v>1908.5625</v>
       </c>
-      <c r="N20" s="25">
-        <f t="shared" ref="N20:N21" si="37">J20*(1+(K20*0.02))</f>
+      <c r="P20" s="25">
+        <f t="shared" ref="P20:P21" si="33">L20*(1+(M20*0.02))</f>
         <v>428.40000000000003</v>
       </c>
-      <c r="O20" s="22">
-        <f>(T20-MAX($D$2,N20))*L20</f>
+      <c r="Q20" s="22">
+        <f>(V20-MAX($D$2,P20))*N20</f>
         <v>241.54</v>
       </c>
-      <c r="P20" s="22">
-        <f>I20/O20</f>
+      <c r="R20" s="22">
+        <f>K20/Q20</f>
         <v>8.3630040572989977</v>
       </c>
-      <c r="Q20" s="22">
-        <f>(AB20-MAX($D$2,N20))*L20</f>
+      <c r="S20" s="22">
+        <f>(AD20-MAX($D$2,P20))*N20</f>
         <v>501.53999999999996</v>
       </c>
-      <c r="R20" s="22">
-        <f>I20/Q20</f>
+      <c r="T20" s="22">
+        <f>K20/S20</f>
         <v>4.0275950073772782</v>
       </c>
-      <c r="T20" s="12">
+      <c r="V20" s="12">
         <v>800</v>
       </c>
-      <c r="U20" s="15">
+      <c r="W20" s="15">
         <v>14000</v>
       </c>
-      <c r="V20" s="16">
+      <c r="X20" s="16">
         <v>105</v>
       </c>
-      <c r="W20" s="17">
-        <v>0</v>
-      </c>
-      <c r="X20" s="17">
-        <f t="shared" ref="X20:X21" si="38">V20*(1+(0.02*W20))</f>
+      <c r="Y20" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="17">
+        <f t="shared" ref="Z20:Z21" si="34">X20*(1+(0.02*Y20))</f>
         <v>105</v>
       </c>
-      <c r="Y20" s="20">
-        <f t="shared" ref="Y20:Y21" si="39">(MAX($M20*$U$1-V20, $R$2)*$U$2)+(MAX($M20*$V$1-V20, $R$2)*$V$2)+(MAX($M20*$W$1-V20, $R$2)*$W$2)</f>
+      <c r="AA20" s="20">
+        <f t="shared" ref="AA20:AA21" si="35">(MAX($O20*$W$1-X20, $T$2)*$W$2)+(MAX($O20*$X$1-X20, $T$2)*$X$2)+(MAX($O20*$Y$1-X20, $T$2)*$Y$2)</f>
         <v>10002.514499999999</v>
       </c>
-      <c r="Z20" s="20">
-        <f t="shared" ref="Z20:Z21" si="40">U20/Y20</f>
+      <c r="AB20" s="20">
+        <f t="shared" ref="AB20:AB21" si="36">W20/AA20</f>
         <v>1.3996480584956914</v>
       </c>
-      <c r="AB20" s="12">
+      <c r="AD20" s="12">
         <v>1200</v>
       </c>
-      <c r="AC20" s="15">
+      <c r="AE20" s="15">
         <v>7000</v>
       </c>
-      <c r="AD20" s="16">
+      <c r="AF20" s="16">
         <v>60</v>
       </c>
-      <c r="AE20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="17">
-        <f t="shared" ref="AF20:AF21" si="41">AD20*(1+(0.02*AE20))</f>
+      <c r="AG20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="17">
+        <f t="shared" ref="AH20:AH21" si="37">AF20*(1+(0.02*AG20))</f>
         <v>60</v>
       </c>
-      <c r="AG20" s="20">
-        <f t="shared" ref="AG20:AG21" si="42">(MAX($M20*$U$1-AD20, $R$2)*$U$2)+(MAX($M20*$V$1-AD20, $R$2)*$V$2)+(MAX($M20*$W$1-AD20, $R$2)*$W$2)</f>
+      <c r="AI20" s="20">
+        <f t="shared" ref="AI20:AI21" si="38">(MAX($O20*$W$1-AF20, $T$2)*$W$2)+(MAX($O20*$X$1-AF20, $T$2)*$X$2)+(MAX($O20*$Y$1-AF20, $T$2)*$Y$2)</f>
         <v>10407.514499999999</v>
       </c>
-      <c r="AH20" s="20">
-        <f t="shared" ref="AH20:AH21" si="43">AC20/AG20</f>
+      <c r="AJ20" s="20">
+        <f t="shared" ref="AJ20:AJ21" si="39">AE20/AI20</f>
         <v>0.67259094378393613</v>
       </c>
-      <c r="AJ20" s="12">
+      <c r="AL20" s="12">
         <v>700</v>
       </c>
-      <c r="AK20" s="15">
+      <c r="AM20" s="15">
         <v>25000</v>
       </c>
-      <c r="AL20" s="16">
+      <c r="AN20" s="16">
         <v>90</v>
       </c>
-      <c r="AM20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="17">
-        <f t="shared" ref="AN20:AN21" si="44">AL20*(1+(0.02*AM20))</f>
+      <c r="AO20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="17">
+        <f t="shared" ref="AP20:AP21" si="40">AN20*(1+(0.02*AO20))</f>
         <v>90</v>
       </c>
-      <c r="AO20" s="20">
-        <f t="shared" ref="AO20:AO21" si="45">(MAX($M20*$U$1-AL20, $R$2)*$U$2)+(MAX($M20*$V$1-AL20, $R$2)*$V$2)+(MAX($M20*$W$1-AL20, $R$2)*$W$2)</f>
+      <c r="AQ20" s="20">
+        <f t="shared" ref="AQ20:AQ21" si="41">(MAX($O20*$W$1-AN20, $T$2)*$W$2)+(MAX($O20*$X$1-AN20, $T$2)*$X$2)+(MAX($O20*$Y$1-AN20, $T$2)*$Y$2)</f>
         <v>10137.514499999999</v>
       </c>
-      <c r="AP20" s="20">
-        <f t="shared" ref="AP20:AP21" si="46">AK20/AO20</f>
+      <c r="AR20" s="20">
+        <f t="shared" ref="AR20:AR21" si="42">AM20/AQ20</f>
         <v>2.4660877180496268</v>
       </c>
-      <c r="AR20" s="12">
+      <c r="AT20" s="12">
         <v>700</v>
       </c>
-      <c r="AS20" s="15">
+      <c r="AU20" s="15">
         <v>14000</v>
       </c>
-      <c r="AT20" s="16">
+      <c r="AV20" s="16">
         <v>800</v>
       </c>
-      <c r="AU20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AV20" s="17">
-        <f t="shared" ref="AV20:AV21" si="47">AT20*(1+(0.02*AU20))</f>
+      <c r="AW20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="17">
+        <f t="shared" ref="AX20:AX21" si="43">AV20*(1+(0.02*AW20))</f>
         <v>800</v>
       </c>
-      <c r="AW20" s="20">
-        <f t="shared" ref="AW20:AW21" si="48">(MAX($M20*$U$1-AT20, $R$2)*$U$2)+(MAX($M20*$V$1-AT20, $R$2)*$V$2)+(MAX($M20*$W$1-AT20, $R$2)*$W$2)</f>
+      <c r="AY20" s="20">
+        <f t="shared" ref="AY20:AY21" si="44">(MAX($O20*$W$1-AV20, $T$2)*$W$2)+(MAX($O20*$X$1-AV20, $T$2)*$X$2)+(MAX($O20*$Y$1-AV20, $T$2)*$Y$2)</f>
         <v>3747.5144999999998</v>
       </c>
-      <c r="AX20" s="20">
-        <f t="shared" ref="AX20:AX21" si="49">AS20/AW20</f>
+      <c r="AZ20" s="20">
+        <f t="shared" ref="AZ20:AZ21" si="45">AU20/AY20</f>
         <v>3.7358094278220939</v>
       </c>
     </row>
-    <row r="21" spans="2:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="46"/>
+    <row r="21" spans="2:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="48"/>
       <c r="C21" s="19">
         <v>4.2</v>
       </c>
       <c r="D21" s="12">
         <v>300</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="52">
+        <v>120</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="12">
         <v>250</v>
       </c>
-      <c r="F21" s="13">
+      <c r="H21" s="13">
         <v>72</v>
       </c>
-      <c r="G21" s="14">
+      <c r="I21" s="14">
         <v>1.9</v>
       </c>
-      <c r="H21" s="14">
+      <c r="J21" s="14">
         <v>2.4</v>
       </c>
-      <c r="I21" s="15">
+      <c r="K21" s="15">
         <v>2900</v>
       </c>
-      <c r="J21" s="16">
+      <c r="L21" s="16">
         <v>250</v>
       </c>
-      <c r="K21" s="17">
+      <c r="M21" s="17">
         <v>64</v>
       </c>
-      <c r="L21" s="23">
+      <c r="N21" s="23">
         <v>0.6</v>
       </c>
-      <c r="M21" s="24">
+      <c r="O21" s="24">
+        <f>(D21+H21+G21)*I21*J21</f>
+        <v>2836.3199999999997</v>
+      </c>
+      <c r="P21" s="25">
+        <f t="shared" si="33"/>
+        <v>570.00000000000011</v>
+      </c>
+      <c r="Q21" s="22">
+        <f>(V21-MAX($D$2,P21))*N21</f>
+        <v>347.99999999999994</v>
+      </c>
+      <c r="R21" s="22">
+        <f>K21/Q21</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="S21" s="22">
+        <f>(AD21-MAX($D$2,P21))*N21</f>
+        <v>738</v>
+      </c>
+      <c r="T21" s="22">
+        <f>K21/S21</f>
+        <v>3.9295392953929538</v>
+      </c>
+      <c r="V21" s="12">
+        <v>1150</v>
+      </c>
+      <c r="W21" s="15">
+        <v>21000</v>
+      </c>
+      <c r="X21" s="16">
+        <v>125</v>
+      </c>
+      <c r="Y21" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="17">
+        <f t="shared" si="34"/>
+        <v>125</v>
+      </c>
+      <c r="AA21" s="20">
+        <f t="shared" si="35"/>
+        <v>15144.131519999999</v>
+      </c>
+      <c r="AB21" s="20">
         <f t="shared" si="36"/>
-        <v>2836.3199999999997</v>
-      </c>
-      <c r="N21" s="25">
+        <v>1.3866757543848907</v>
+      </c>
+      <c r="AD21" s="12">
+        <v>1800</v>
+      </c>
+      <c r="AE21" s="15">
+        <v>11000</v>
+      </c>
+      <c r="AF21" s="16">
+        <v>70</v>
+      </c>
+      <c r="AG21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="17">
         <f t="shared" si="37"/>
-        <v>570.00000000000011</v>
-      </c>
-      <c r="O21" s="22">
-        <f>(T21-MAX($D$2,N21))*L21</f>
-        <v>347.99999999999994</v>
-      </c>
-      <c r="P21" s="22">
-        <f>I21/O21</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="Q21" s="22">
-        <f>(AB21-MAX($D$2,N21))*L21</f>
-        <v>738</v>
-      </c>
-      <c r="R21" s="22">
-        <f>I21/Q21</f>
-        <v>3.9295392953929538</v>
-      </c>
-      <c r="T21" s="12">
-        <v>1150</v>
-      </c>
-      <c r="U21" s="15">
+        <v>70</v>
+      </c>
+      <c r="AI21" s="20">
+        <f t="shared" si="38"/>
+        <v>15639.131519999999</v>
+      </c>
+      <c r="AJ21" s="20">
+        <f t="shared" si="39"/>
+        <v>0.70336386556585473</v>
+      </c>
+      <c r="AL21" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AM21" s="15">
+        <v>40000</v>
+      </c>
+      <c r="AN21" s="16">
+        <v>110</v>
+      </c>
+      <c r="AO21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="17">
+        <f t="shared" si="40"/>
+        <v>110</v>
+      </c>
+      <c r="AQ21" s="20">
+        <f t="shared" si="41"/>
+        <v>15279.131519999999</v>
+      </c>
+      <c r="AR21" s="20">
+        <f t="shared" si="42"/>
+        <v>2.61794984535875</v>
+      </c>
+      <c r="AT21" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AU21" s="15">
         <v>21000</v>
       </c>
-      <c r="V21" s="16">
-        <v>125</v>
-      </c>
-      <c r="W21" s="17">
-        <v>0</v>
-      </c>
-      <c r="X21" s="17">
-        <f t="shared" si="38"/>
-        <v>125</v>
-      </c>
-      <c r="Y21" s="20">
-        <f t="shared" si="39"/>
-        <v>15144.131519999999</v>
-      </c>
-      <c r="Z21" s="20">
-        <f t="shared" si="40"/>
-        <v>1.3866757543848907</v>
-      </c>
-      <c r="AB21" s="12">
-        <v>1800</v>
-      </c>
-      <c r="AC21" s="15">
-        <v>11000</v>
-      </c>
-      <c r="AD21" s="16">
-        <v>70</v>
-      </c>
-      <c r="AE21" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="17">
-        <f t="shared" si="41"/>
-        <v>70</v>
-      </c>
-      <c r="AG21" s="20">
-        <f t="shared" si="42"/>
-        <v>15639.131519999999</v>
-      </c>
-      <c r="AH21" s="20">
+      <c r="AV21" s="16">
+        <v>1200</v>
+      </c>
+      <c r="AW21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="17">
         <f t="shared" si="43"/>
-        <v>0.70336386556585473</v>
-      </c>
-      <c r="AJ21" s="12">
-        <v>1000</v>
-      </c>
-      <c r="AK21" s="15">
-        <v>40000</v>
-      </c>
-      <c r="AL21" s="16">
-        <v>110</v>
-      </c>
-      <c r="AM21" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="17">
+        <v>1200</v>
+      </c>
+      <c r="AY21" s="20">
         <f t="shared" si="44"/>
-        <v>110</v>
-      </c>
-      <c r="AO21" s="20">
+        <v>5469.1315199999981</v>
+      </c>
+      <c r="AZ21" s="20">
         <f t="shared" si="45"/>
-        <v>15279.131519999999</v>
-      </c>
-      <c r="AP21" s="20">
-        <f t="shared" si="46"/>
-        <v>2.61794984535875</v>
-      </c>
-      <c r="AR21" s="12">
-        <v>1000</v>
-      </c>
-      <c r="AS21" s="15">
-        <v>21000</v>
-      </c>
-      <c r="AT21" s="16">
-        <v>1200</v>
-      </c>
-      <c r="AU21" s="17">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="17">
-        <f t="shared" si="47"/>
-        <v>1200</v>
-      </c>
-      <c r="AW21" s="20">
-        <f t="shared" si="48"/>
-        <v>5469.1315199999981</v>
-      </c>
-      <c r="AX21" s="20">
-        <f t="shared" si="49"/>
         <v>3.8397321262444257</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D3:N3"/>
-    <mergeCell ref="T3:AW3"/>
-    <mergeCell ref="AR4:AW4"/>
-    <mergeCell ref="AJ4:AO4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="T4:Y4"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D3:P3"/>
+    <mergeCell ref="V3:AY3"/>
+    <mergeCell ref="AT4:AY4"/>
+    <mergeCell ref="AL4:AQ4"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="V4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dev_docs/千界万锻数值表格-V1.6-2025-10-8.xlsx
+++ b/dev_docs/千界万锻数值表格-V1.6-2025-10-8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCL\.minecraft\versions\SenDims_BanForges\dev_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB289148-5B2C-42E7-BF61-C4880966338A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BD142D-8FC0-47CA-A5BF-A3BB7BD2FE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3950" yWindow="2820" windowWidth="19200" windowHeight="11260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="普通攻击" sheetId="1" r:id="rId1"/>
@@ -638,7 +638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,6 +741,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -750,6 +756,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -762,40 +780,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1082,32 +1079,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="G1" s="45" t="s">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1173,32 +1170,32 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="4"/>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="36"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="38"/>
       <c r="O8" s="1"/>
-      <c r="Q8" s="34" t="s">
+      <c r="Q8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="36"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="38"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1280,11 +1277,11 @@
         <f t="shared" ref="E10:E15" si="0">D10*B10</f>
         <v>9.0200000000000014</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="39">
         <f>D10+D11+D12+D13</f>
         <v>36.520000000000003</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="46">
         <v>1.5</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1304,11 +1301,11 @@
         <f t="shared" ref="M10:M16" si="2">L10*J10</f>
         <v>9.0200000000000014</v>
       </c>
-      <c r="N10" s="41">
+      <c r="N10" s="39">
         <f>L10+L11+L12+L13+L14+L15+L16</f>
         <v>50.338000000000008</v>
       </c>
-      <c r="O10" s="40">
+      <c r="O10" s="46">
         <v>4</v>
       </c>
       <c r="Q10" s="1" t="s">
@@ -1328,7 +1325,7 @@
         <f>T10*R10</f>
         <v>9.0200000000000014</v>
       </c>
-      <c r="V10" s="37">
+      <c r="V10" s="43">
         <f>T10+T11+T12</f>
         <v>34.840000000000003</v>
       </c>
@@ -1351,8 +1348,8 @@
         <f t="shared" si="0"/>
         <v>9.0200000000000014</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="46"/>
       <c r="I11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1370,8 +1367,8 @@
         <f t="shared" si="2"/>
         <v>9.0200000000000014</v>
       </c>
-      <c r="N11" s="44"/>
-      <c r="O11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="46"/>
       <c r="Q11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1389,7 +1386,7 @@
         <f>T11*R11</f>
         <v>9.0200000000000014</v>
       </c>
-      <c r="V11" s="38"/>
+      <c r="V11" s="44"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1409,8 +1406,8 @@
         <f t="shared" si="0"/>
         <v>18.48</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="46"/>
       <c r="I12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1428,8 +1425,8 @@
         <f t="shared" si="2"/>
         <v>18.48</v>
       </c>
-      <c r="N12" s="44"/>
-      <c r="O12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="46"/>
       <c r="Q12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1447,7 +1444,7 @@
         <f>T12*R12</f>
         <v>33.6</v>
       </c>
-      <c r="V12" s="39"/>
+      <c r="V12" s="45"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1467,8 +1464,8 @@
         <f t="shared" si="0"/>
         <v>18.48</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="40"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="46"/>
       <c r="I13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1486,8 +1483,8 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="N13" s="44"/>
-      <c r="O13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="46"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1507,11 +1504,11 @@
         <f t="shared" si="0"/>
         <v>31.5</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="39">
         <f>D10+D11+D12+D14+D15</f>
         <v>59.155000000000001</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="46">
         <v>3</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -1531,8 +1528,8 @@
         <f t="shared" si="2"/>
         <v>40.137999999999998</v>
       </c>
-      <c r="N14" s="44"/>
-      <c r="O14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="46"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1552,8 +1549,8 @@
         <f t="shared" si="0"/>
         <v>48.375</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="40"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="46"/>
       <c r="I15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1571,8 +1568,8 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="N15" s="44"/>
-      <c r="O15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="46"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D16" s="6" t="s">
@@ -1603,8 +1600,8 @@
         <f t="shared" si="2"/>
         <v>10.247999999999999</v>
       </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="40"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="46"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D17" s="6" t="s">
@@ -1653,21 +1650,21 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="I20" s="34" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="I20" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="36"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="38"/>
       <c r="O20" s="5"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1740,7 +1737,7 @@
         <f t="shared" ref="M22:M26" si="3">L22*J22</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="N22" s="37">
+      <c r="N22" s="43">
         <f>L22+L23+L24</f>
         <v>0.84000000000000008</v>
       </c>
@@ -1780,7 +1777,7 @@
         <f t="shared" si="3"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="N23" s="38"/>
+      <c r="N23" s="44"/>
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1817,7 +1814,7 @@
         <f t="shared" si="3"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="N24" s="39"/>
+      <c r="N24" s="45"/>
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1854,7 +1851,7 @@
         <f t="shared" si="3"/>
         <v>0.68</v>
       </c>
-      <c r="N25" s="37">
+      <c r="N25" s="43">
         <f>L22+L23+L25+L26</f>
         <v>1.2400000000000002</v>
       </c>
@@ -1877,7 +1874,7 @@
         <f t="shared" si="3"/>
         <v>0.68</v>
       </c>
-      <c r="N26" s="39"/>
+      <c r="N26" s="45"/>
       <c r="O26" s="5"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1891,23 +1888,23 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38"/>
       <c r="G30" s="4"/>
-      <c r="I30" s="43" t="s">
+      <c r="I30" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="36"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="38"/>
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -1972,11 +1969,11 @@
         <f t="shared" ref="E32:E37" si="4">D32*B32</f>
         <v>14.145</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="39">
         <f>D32+D33+D34+D35</f>
         <v>57.269999999999996</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="46">
         <v>1.5</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -1996,11 +1993,11 @@
         <f t="shared" ref="M32:M38" si="6">L32*J32</f>
         <v>14.145</v>
       </c>
-      <c r="N32" s="41">
+      <c r="N32" s="39">
         <f>L32+L33+L34+L35+L36+L37+L38</f>
         <v>89.46299999999998</v>
       </c>
-      <c r="O32" s="40">
+      <c r="O32" s="46">
         <v>4</v>
       </c>
     </row>
@@ -2022,8 +2019,8 @@
         <f t="shared" si="4"/>
         <v>14.145</v>
       </c>
-      <c r="F33" s="44"/>
-      <c r="G33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="46"/>
       <c r="I33" s="1" t="s">
         <v>19</v>
       </c>
@@ -2041,8 +2038,8 @@
         <f t="shared" si="6"/>
         <v>14.145</v>
       </c>
-      <c r="N33" s="44"/>
-      <c r="O33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="46"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -2062,8 +2059,8 @@
         <f t="shared" si="4"/>
         <v>28.979999999999997</v>
       </c>
-      <c r="F34" s="44"/>
-      <c r="G34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="46"/>
       <c r="I34" s="1" t="s">
         <v>20</v>
       </c>
@@ -2081,8 +2078,8 @@
         <f t="shared" si="6"/>
         <v>28.979999999999997</v>
       </c>
-      <c r="N34" s="44"/>
-      <c r="O34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="46"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -2102,8 +2099,8 @@
         <f t="shared" si="4"/>
         <v>28.979999999999997</v>
       </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="40"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="46"/>
       <c r="I35" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2118,8 @@
         <f t="shared" si="6"/>
         <v>123.49999999999997</v>
       </c>
-      <c r="N35" s="44"/>
-      <c r="O35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="46"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -2142,11 +2139,11 @@
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="F36" s="41">
+      <c r="F36" s="39">
         <f>D32+D33+D34+D36+D37</f>
         <v>85.28</v>
       </c>
-      <c r="G36" s="40">
+      <c r="G36" s="46">
         <v>3</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -2166,8 +2163,8 @@
         <f t="shared" si="6"/>
         <v>81.262999999999991</v>
       </c>
-      <c r="N36" s="44"/>
-      <c r="O36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="46"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -2187,8 +2184,8 @@
         <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
-      <c r="F37" s="42"/>
-      <c r="G37" s="40"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="46"/>
       <c r="I37" s="1" t="s">
         <v>27</v>
       </c>
@@ -2206,8 +2203,8 @@
         <f t="shared" si="6"/>
         <v>123.49999999999997</v>
       </c>
-      <c r="N37" s="44"/>
-      <c r="O37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="46"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D38" s="6" t="s">
@@ -2238,8 +2235,8 @@
         <f t="shared" si="6"/>
         <v>20.747999999999998</v>
       </c>
-      <c r="N38" s="42"/>
-      <c r="O38" s="40"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="46"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D39" s="6" t="s">
@@ -2284,21 +2281,21 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="36"/>
-      <c r="I43" s="34" t="s">
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="I43" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="36"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="38"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -2369,7 +2366,7 @@
         <f t="shared" ref="M45:M49" si="7">L45*J45</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="N45" s="37">
+      <c r="N45" s="43">
         <f>L45+L46+L47</f>
         <v>0.84000000000000008</v>
       </c>
@@ -2408,7 +2405,7 @@
         <f t="shared" si="7"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="N46" s="38"/>
+      <c r="N46" s="44"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -2444,7 +2441,7 @@
         <f t="shared" si="7"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="N47" s="39"/>
+      <c r="N47" s="45"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -2480,7 +2477,7 @@
         <f t="shared" si="7"/>
         <v>0.68</v>
       </c>
-      <c r="N48" s="37">
+      <c r="N48" s="43">
         <f>L45+L46+L48+L49</f>
         <v>1.2400000000000002</v>
       </c>
@@ -2502,10 +2499,29 @@
         <f t="shared" si="7"/>
         <v>0.68</v>
       </c>
-      <c r="N49" s="39"/>
+      <c r="N49" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="N45:N47"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="O32:O38"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="N32:N38"/>
+    <mergeCell ref="N22:N24"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="V10:V12"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="O10:O16"/>
+    <mergeCell ref="N10:N16"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="I20:N20"/>
     <mergeCell ref="F10:F13"/>
@@ -2515,25 +2531,6 @@
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="I8:N8"/>
     <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="N22:N24"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="V10:V12"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="O10:O16"/>
-    <mergeCell ref="N10:N16"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="N32:N38"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="N45:N47"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="O32:O38"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2564,7 +2561,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6328125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2576,8 +2573,6 @@
       <c r="D1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
       <c r="T1" s="16" t="s">
         <v>65</v>
       </c>
@@ -2598,8 +2593,6 @@
       <c r="D2" s="27">
         <v>0.5</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
       <c r="T2" s="27">
         <v>0.5</v>
       </c>
@@ -2618,57 +2611,57 @@
     </row>
     <row r="3" spans="2:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="21"/>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
       <c r="S3" s="21"/>
       <c r="T3" s="21"/>
-      <c r="V3" s="46" t="s">
+      <c r="V3" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="46"/>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="46"/>
-      <c r="AT3" s="46"/>
-      <c r="AU3" s="46"/>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="50"/>
+      <c r="AP3" s="50"/>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="50"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
       <c r="AZ3" s="21"/>
     </row>
     <row r="4" spans="2:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2714,44 +2707,44 @@
       <c r="R4" s="21"/>
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
-      <c r="V4" s="47" t="s">
+      <c r="V4" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
       <c r="AB4" s="21"/>
       <c r="AC4" s="21"/>
-      <c r="AD4" s="47" t="s">
+      <c r="AD4" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
       <c r="AH4" s="21"/>
       <c r="AI4" s="21"/>
       <c r="AJ4" s="21"/>
       <c r="AK4" s="21"/>
-      <c r="AL4" s="47" t="s">
+      <c r="AL4" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="51"/>
       <c r="AR4" s="21"/>
       <c r="AS4" s="21"/>
-      <c r="AT4" s="47" t="s">
+      <c r="AT4" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="AU4" s="47"/>
-      <c r="AV4" s="47"/>
-      <c r="AW4" s="47"/>
-      <c r="AX4" s="47"/>
-      <c r="AY4" s="47"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
       <c r="AZ4" s="21"/>
     </row>
     <row r="5" spans="2:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2759,10 +2752,10 @@
       <c r="D5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="34" t="s">
         <v>49</v>
       </c>
       <c r="G5" s="12" t="s">
@@ -2902,10 +2895,10 @@
       <c r="D6" s="12">
         <v>2</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="34">
         <v>2</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="35">
         <v>0</v>
       </c>
       <c r="G6" s="12">
@@ -3061,10 +3054,10 @@
       <c r="D7" s="12">
         <v>6</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="35">
         <v>3</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="35">
         <v>1</v>
       </c>
       <c r="G7" s="12">
@@ -3222,10 +3215,10 @@
       <c r="D8" s="12">
         <v>8</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="35">
         <v>3</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="35">
         <v>5</v>
       </c>
       <c r="G8" s="12">
@@ -3381,10 +3374,10 @@
       <c r="D9" s="12">
         <v>16</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="35">
         <v>5</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="35">
         <v>5</v>
       </c>
       <c r="G9" s="12">
@@ -3542,10 +3535,10 @@
       <c r="D10" s="12">
         <v>24</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="35">
         <v>10</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="35">
         <v>10</v>
       </c>
       <c r="G10" s="12">
@@ -3704,10 +3697,10 @@
       <c r="D12" s="12">
         <v>32</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="34">
         <v>20</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="34" t="s">
         <v>88</v>
       </c>
       <c r="G12" s="12">
@@ -3865,10 +3858,10 @@
       <c r="D13" s="12">
         <v>48</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="35">
         <v>30</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G13" s="12">
@@ -4024,10 +4017,10 @@
       <c r="D14" s="12">
         <v>64</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="35">
         <v>50</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="34">
         <v>25</v>
       </c>
       <c r="G14" s="12">
@@ -4185,10 +4178,10 @@
       <c r="D16" s="12">
         <v>80</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="34">
         <v>60</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="34" t="s">
         <v>86</v>
       </c>
       <c r="G16" s="12">
@@ -4344,10 +4337,10 @@
       <c r="D17" s="12">
         <v>120</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="35">
         <v>65</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="34" t="s">
         <v>87</v>
       </c>
       <c r="G17" s="12">
@@ -4503,10 +4496,10 @@
       <c r="D18" s="12">
         <v>160</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="35">
         <v>70</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="35">
         <v>50</v>
       </c>
       <c r="G18" s="12">
@@ -4664,10 +4657,10 @@
       <c r="D20" s="12">
         <v>240</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="34">
         <v>100</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="34" t="s">
         <v>90</v>
       </c>
       <c r="G20" s="12">
@@ -4823,10 +4816,10 @@
       <c r="D21" s="12">
         <v>300</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="35">
         <v>120</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="34" t="s">
         <v>91</v>
       </c>
       <c r="G21" s="12">
@@ -4976,18 +4969,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D3:P3"/>
+    <mergeCell ref="V3:AY3"/>
+    <mergeCell ref="AT4:AY4"/>
+    <mergeCell ref="AL4:AQ4"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="V4:AA4"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D3:P3"/>
-    <mergeCell ref="V3:AY3"/>
-    <mergeCell ref="AT4:AY4"/>
-    <mergeCell ref="AL4:AQ4"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="V4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
